--- a/PS stream.xlsx
+++ b/PS stream.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://publicisgroupe-my.sharepoint.com/personal/srimr_publicisgroupe_net/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E92ABD69-CC9B-4558-B614-6DDE371F63D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77FC8F8A-EDE2-4FCD-BC0F-D9826FD29A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guideline" sheetId="3" r:id="rId1"/>
@@ -72,28 +72,20 @@
     <author>tc={528D454B-CF70-4EC8-BA92-4A70CD4E52C8}</author>
   </authors>
   <commentList>
-    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{E9C77810-A7D1-4537-A749-464CCFA53999}">
+    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{E9C77810-A7D1-4537-A749-464CCFA53999}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    do we need kafka setup for this product?
-Reply:
-    yes
-Reply:
-    API to API event streaming
-</t>
+    </t>
       </text>
     </comment>
-    <comment ref="D63" authorId="1" shapeId="0" xr:uid="{528D454B-CF70-4EC8-BA92-4A70CD4E52C8}">
+    <comment ref="C66" authorId="1" shapeId="0" xr:uid="{528D454B-CF70-4EC8-BA92-4A70CD4E52C8}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    where are we using GraphQL?
-Reply:
-    API Response in ms
-</t>
+    </t>
       </text>
     </comment>
   </commentList>
@@ -101,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="522">
   <si>
     <t>The simple problem statements could be deceptive and the tip of an iceberg, as each of the features in the problem statements can be elaborated to cover a lot of depth.</t>
   </si>
@@ -2239,7 +2231,7 @@
     <t>T10</t>
   </si>
   <si>
-    <t>Docker File for front end</t>
+    <t>Docker File for backend</t>
   </si>
   <si>
     <t>Navjit Singh</t>
@@ -2302,7 +2294,7 @@
     <t>T17</t>
   </si>
   <si>
-    <t>Docker File for backend</t>
+    <t>Docker File for frontend</t>
   </si>
   <si>
     <t>Rohit Sachdeva</t>
@@ -2527,10 +2519,11 @@
     <t>Sprint Details</t>
   </si>
   <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>Domain Driven Design Strategic Design</t>
+    <t>Domain Driven Design Strategic Design
+Domain Driven Design Tactical Design
+Identify Entities and Services like Channels,  User Account , Admin account, for Videos
+List All the Table Mapping and Constraints
+Draw ER Diagram</t>
   </si>
   <si>
     <t>1) Data base design 
@@ -2543,46 +2536,28 @@
 g) Creation of all the tables</t>
   </si>
   <si>
-    <t>Domain Driven Design Tactical Design</t>
-  </si>
-  <si>
-    <t>Identify Entities and Services like Channels,  User Account , Admin account, for Videos</t>
-  </si>
-  <si>
-    <t>List All the Table Mapping and Constraints</t>
-  </si>
-  <si>
-    <t>Draw ER Diagram</t>
-  </si>
-  <si>
     <t>CI Branching</t>
   </si>
   <si>
-    <t>Branching Strategy for Microservices</t>
-  </si>
-  <si>
-    <t>Create Branches for all the Services Identified. One Branch per Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create repository in AWS. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create basic Reactjs with Redux Structure use 16.8 version(because enzyme not available for 18.x) </t>
-  </si>
-  <si>
-    <t>Implement Quality Check Lint and Coverage Test Setup</t>
-  </si>
-  <si>
-    <t>Implement enzyme test setup</t>
-  </si>
-  <si>
-    <t>Implement React Logging with ELK Setup</t>
+    <t xml:space="preserve">Create Branches for all the Services Identified. One Branch per Service
+Create repository for all microservice </t>
+  </si>
+  <si>
+    <t>Base setup for front end application based on propsed architecture
+1. Quality check setup like Linting, Unit testing, Prettier etc.
+2. Application setup based on choice of solution like Next JS/React Js etc.
+3. State managment solution integration"
+Create basic Reactjs with Redux Structure use 16.8 version(because enzyme not available for 18.x) 
+Implement Quality Check Lint and Coverage Test Setup
+Implement enzyme test setup,Implement React Logging with ELK Setup</t>
   </si>
   <si>
     <t>Atomic Design front end</t>
   </si>
   <si>
-    <t xml:space="preserve"> Reusable components  for project input, button, message, other form components</t>
+    <t>Reusable components  for project input, button, message, other form components
+Create CSS configuration with PrimeReact and Bootstrap
+Identify Testcases needed for each Component</t>
   </si>
   <si>
     <t>Front atomic design:
@@ -2593,19 +2568,10 @@
 e) All components/modules should be accessible for AA standard.</t>
   </si>
   <si>
-    <t>Create CSS configuration with PrimeReact and Bootstrap</t>
-  </si>
-  <si>
-    <t>Identify Testcases needed for each Component</t>
-  </si>
-  <si>
-    <t>Identify Accessibility required according to AA standard</t>
-  </si>
-  <si>
-    <t>Log4j and AOP Integration</t>
-  </si>
-  <si>
-    <t>Create Log4j with AOP template</t>
+    <t>Identify Accessibility required according to AA standard
+Create Log4j with AOP template
+Add required Dependecies in POM.xml
+Create AOP advice for address Cross cutting concers like Logging and Exceptions,Create AOP advice for address Cross cutting concers like Security and Transactions</t>
   </si>
   <si>
     <t>4) Log4j with AOP  integrated to template
@@ -2616,18 +2582,6 @@
 e) Attach this to the microservice template</t>
   </si>
   <si>
-    <t>Add required Dependecies in POM.xml</t>
-  </si>
-  <si>
-    <t>Create AOP advice for address Cross cutting concers like Logging and Exceptions</t>
-  </si>
-  <si>
-    <t>Create AOP advice for address Cross cutting concers like Security and Transactions</t>
-  </si>
-  <si>
-    <t>Resource bundling and integration with microservice template</t>
-  </si>
-  <si>
     <t>5)Property File
 a) Properties file should be defined for each Profile
 b) Commonly used of key and value should be defined
@@ -2636,91 +2590,40 @@
 emplate</t>
   </si>
   <si>
-    <t xml:space="preserve">Branching Strategy for Front End UI </t>
-  </si>
-  <si>
     <t>Branching Strategy For UI</t>
   </si>
   <si>
-    <t xml:space="preserve">Define the branching strategy  for front end </t>
-  </si>
-  <si>
-    <t>Create repository for front end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add the front end template to the master branch  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microservice Template with basic all the dependency  and Frontend template for react </t>
+    <t xml:space="preserve">Define the branching strategy  for front end 
+Create repository for front end
+Add the front end template to the master branch </t>
   </si>
   <si>
     <t>Micro Front End Templates with Dependencies</t>
   </si>
   <si>
-    <t xml:space="preserve"> Describe properties in the external property file</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add log4j template</t>
-  </si>
-  <si>
-    <t>Add resource bundle template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add proper package structure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Front End Architecture Design</t>
-  </si>
-  <si>
     <t>Architecture Design Front End</t>
   </si>
   <si>
-    <t>Complete architecture for front end</t>
-  </si>
-  <si>
-    <t>Final  Proper Tech stack Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Deployment Design</t>
-  </si>
-  <si>
-    <t>Connectivity to the back end Configuration</t>
-  </si>
-  <si>
-    <t>Security Plan (JWT or Any Token Based Approach)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Application flow Diagram</t>
-  </si>
-  <si>
     <t xml:space="preserve">Devops	</t>
   </si>
   <si>
-    <t xml:space="preserve"> Docker file for front end</t>
-  </si>
-  <si>
-    <t>Docker File for front End</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Docker file for front end react and redux</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Docker compose file </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Team should setup log server for front end application </t>
-  </si>
-  <si>
-    <t> Team should setup a headless CMS to get all the content, labels etc to render on frontend.</t>
+    <t>Docker File for Back End</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)  Docker file for back end
+1) This should docker the microservice
+2) The library and proper staging should be added
+3) This docker file to be added in the micro service template
+</t>
   </si>
   <si>
     <t> Template</t>
   </si>
   <si>
-    <t> Design for the front end header, footer, layout</t>
-  </si>
-  <si>
-    <t> Complete Layout for the Project</t>
+    <t>1) Footer
+2) Header
+3) Search
+4) Layout for the complete project</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2730,19 +2633,7 @@
 4) Layout for the complete project</t>
   </si>
   <si>
-    <t> Header</t>
-  </si>
-  <si>
-    <t> Footer</t>
-  </si>
-  <si>
-    <t> CICD Pipeline for microservice</t>
-  </si>
-  <si>
     <t>CICD Pipeline For Microservice</t>
-  </si>
-  <si>
-    <t> should have a Jenkins job  to pull code from bit bucket and run the Jenkins File</t>
   </si>
   <si>
     <t>should have a Jenkins job  to pull code from bit bucket and run the Jenkins File On failure of the thresh hold values a mail notification need to be generated 
@@ -2750,21 +2641,19 @@
 should have a Jenkins job  to pull code of front end from bit bucket and run the Jenkins File for compilation of the front end</t>
   </si>
   <si>
-    <t xml:space="preserve"> On failure of the thresh hold values a mail notification need to be generated 
-On success it should continue the pipe line job
-</t>
-  </si>
-  <si>
-    <t> .should have a Jenkins job  to pull code of front end from bit bucket and run the Jenkins File for compilation of the front end</t>
-  </si>
-  <si>
-    <t>  BackEnd Architecture</t>
-  </si>
-  <si>
     <t>Architecture Design for Back end</t>
   </si>
   <si>
-    <t> Complete architecture for backend end</t>
+    <t>Complete architecture for backend end
+Final  Proper Tech stack Design
+ Deployment Design
+Connectivity to the back end Configuration
+Security Plan (JWT or Any Token Based Approach)
+ Application flow Diagram
+Asynchronous Call (Reactive Java)/ Message Service KAFKA
+Aggregator
+API Gateway
+Cloud Registry</t>
   </si>
   <si>
     <t>4) Backend End Architecture Design
@@ -2780,83 +2669,41 @@
 j) aggregator</t>
   </si>
   <si>
-    <t>Asynchronous Call (Reactive Java)/ Message Service KAFKA</t>
-  </si>
-  <si>
-    <t>Aggregator</t>
-  </si>
-  <si>
-    <t>Cloud Registry</t>
-  </si>
-  <si>
-    <t> Coding Conventions/ Project Guidelines for Microservice</t>
-  </si>
-  <si>
     <t>Coding Convetions/Project Guidelines for Microservices</t>
   </si>
   <si>
-    <t> Naming convention and Code Smell</t>
-  </si>
-  <si>
-    <t>Best Practices and External Config and Discovery Pattern</t>
-  </si>
-  <si>
-    <t>API Versioning</t>
-  </si>
-  <si>
-    <t>Response Flexibity Graphql</t>
-  </si>
-  <si>
-    <t>Package Structute</t>
-  </si>
-  <si>
-    <t>Project Management</t>
-  </si>
-  <si>
-    <t>Swagger Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Docker file for back end</t>
-  </si>
-  <si>
-    <t>Docker File  for backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Docker file for back end for Front End UI</t>
-  </si>
-  <si>
-    <t> Docker compose file  for Front End</t>
-  </si>
-  <si>
-    <t>  Front atomic design for react component</t>
-  </si>
-  <si>
-    <t>  The design should be for pagination, video player</t>
-  </si>
-  <si>
-    <t>The props should be defined for these components</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Should be added in the  front end template 
-</t>
-  </si>
-  <si>
-    <t> Jenkins CD pipeline architect design the document should show proper chaining on success and failur at each step</t>
-  </si>
-  <si>
-    <t>  A diagrammatic representation of the cd pipeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The tech stack should be defined properly </t>
-  </si>
-  <si>
-    <t> Conditions should specified to pass the pipeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jenkin File for declarative pipe line for microservice </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Use groovy language and pipe line structure </t>
+    <t> Naming convention and Code Smell
+Best Practices and External Config and Discovery Pattern
+API Versioning
+Response Flexibity Graphql
+Package Structute
+Project Management
+Swagger Configuration</t>
+  </si>
+  <si>
+    <t>Docker File  for frontend</t>
+  </si>
+  <si>
+    <t>  Docker file for back end for Front End UI
+ Docker compose file  for Front End</t>
+  </si>
+  <si>
+    <t> The design should be for pagination, video player
+The props should be defined for these components
+" Should be added in the  front end template 
+"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A diagrammatic representation of the cd pipeline
+ The tech stack should be defined properly 
+ Conditions should specified to pass the pipeline</t>
+  </si>
+  <si>
+    <t> Use groovy language and pipe line structure 
+ Compile and Test
+Code Coverage Jacoco Report
+Sonar Qube Integration
+If any where the condition fail notification should be given</t>
   </si>
   <si>
     <t>1) Jenkin File for declarative pipe line for microservice 
@@ -2867,21 +2714,6 @@
 e) If any where the condition fail notification should be given</t>
   </si>
   <si>
-    <t> Compile and Test</t>
-  </si>
-  <si>
-    <t>Code Coverage Jacoco Report</t>
-  </si>
-  <si>
-    <t>Sonar Qube Integration</t>
-  </si>
-  <si>
-    <t>If any where the condition fail notification should be given</t>
-  </si>
-  <si>
-    <t>Sonar Integration for the Bitbucket</t>
-  </si>
-  <si>
     <t>Sonar Integration for the Bitbucket
 It should validate the sonar lints</t>
   </si>
@@ -2890,9 +2722,6 @@
 a) It should validate the sonar lints</t>
   </si>
   <si>
-    <t> jenkin File for declarative pipe line for front end</t>
-  </si>
-  <si>
     <t>Jenkin file for front end</t>
   </si>
   <si>
@@ -2908,13 +2737,8 @@
     <t>d) jslint, code coverage</t>
   </si>
   <si>
-    <t>Setting up the AWS Firewall rules and the policies for the different production instances for AWS (VPC's and subnets) based on the microservices and also linking with IAM roles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set up the AWS RDS for database and apply the security principles for the same, </t>
-  </si>
-  <si>
-    <t>setup the respective VPC's and the subnets and the CIDR ranges and the Azure firewall rules for the traffic coming to the AWS clusters.</t>
+    <t>  set up the AWS RDS for database and apply the security principles for the same, 
+setup the respective VPC's and the subnets and the CIDR ranges and the Azure firewall rules for the traffic coming to the AWS clusters.</t>
   </si>
   <si>
     <t>Need to setup the AWS Cloud Logging and ECS cluster for deploying the various instances with the fail over strategies.</t>
@@ -3221,12 +3045,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3241,6 +3059,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="44">
@@ -3503,7 +3328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -4281,19 +4106,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFFF0000"/>
       </left>
@@ -4331,62 +4143,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FFFF0000"/>
@@ -4410,13 +4166,109 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FF00B050"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -4425,7 +4277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4654,9 +4506,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4717,30 +4566,14 @@
     <xf numFmtId="0" fontId="37" fillId="42" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="36" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="41" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="41" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4875,41 +4708,8 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" indent="1"/>
@@ -4929,7 +4729,7 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4953,89 +4753,177 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="41" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="42" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="43" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="39" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -5348,22 +5236,22 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D56" dT="2022-07-27T03:33:41.77" personId="{755D9237-D4A3-408F-8C0D-B419CFBEB525}" id="{E9C77810-A7D1-4537-A749-464CCFA53999}">
+  <threadedComment ref="C52" dT="2022-07-27T03:33:41.77" personId="{755D9237-D4A3-408F-8C0D-B419CFBEB525}" id="{E9C77810-A7D1-4537-A749-464CCFA53999}">
     <text>do we need kafka setup for this product?</text>
   </threadedComment>
-  <threadedComment ref="D56" dT="2022-07-27T06:20:08.05" personId="{3AB8DBFE-0801-480B-A873-313C2FEABD31}" id="{3EEE5CC2-CDA6-4E16-9385-289B61C5E78A}" parentId="{E9C77810-A7D1-4537-A749-464CCFA53999}">
+  <threadedComment ref="C52" dT="2022-07-27T06:20:08.05" personId="{3AB8DBFE-0801-480B-A873-313C2FEABD31}" id="{3EEE5CC2-CDA6-4E16-9385-289B61C5E78A}" parentId="{E9C77810-A7D1-4537-A749-464CCFA53999}">
     <text xml:space="preserve">yes
 </text>
   </threadedComment>
-  <threadedComment ref="D56" dT="2022-07-27T06:20:43.98" personId="{3AB8DBFE-0801-480B-A873-313C2FEABD31}" id="{BCF1B653-6C1D-461C-AB57-07F076A7E329}" parentId="{E9C77810-A7D1-4537-A749-464CCFA53999}">
+  <threadedComment ref="C52" dT="2022-07-27T06:20:43.98" personId="{3AB8DBFE-0801-480B-A873-313C2FEABD31}" id="{BCF1B653-6C1D-461C-AB57-07F076A7E329}" parentId="{E9C77810-A7D1-4537-A749-464CCFA53999}">
     <text xml:space="preserve">API to API event streaming
 </text>
   </threadedComment>
-  <threadedComment ref="D63" dT="2022-07-27T03:33:09.08" personId="{755D9237-D4A3-408F-8C0D-B419CFBEB525}" id="{528D454B-CF70-4EC8-BA92-4A70CD4E52C8}">
+  <threadedComment ref="C63" dT="2022-07-27T03:33:09.08" personId="{755D9237-D4A3-408F-8C0D-B419CFBEB525}" id="{528D454B-CF70-4EC8-BA92-4A70CD4E52C8}">
     <text xml:space="preserve">where are we using GraphQL?
 </text>
   </threadedComment>
-  <threadedComment ref="D63" dT="2022-07-27T06:19:48.75" personId="{3AB8DBFE-0801-480B-A873-313C2FEABD31}" id="{A48C72DA-BBC6-468F-B5CC-F8837D5C194E}" parentId="{528D454B-CF70-4EC8-BA92-4A70CD4E52C8}">
+  <threadedComment ref="C63" dT="2022-07-27T06:19:48.75" personId="{3AB8DBFE-0801-480B-A873-313C2FEABD31}" id="{A48C72DA-BBC6-468F-B5CC-F8837D5C194E}" parentId="{528D454B-CF70-4EC8-BA92-4A70CD4E52C8}">
     <text xml:space="preserve">API Response in ms
 </text>
   </threadedComment>
@@ -5422,26 +5310,26 @@
       <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="F9" s="147" t="s">
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="F9" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="148"/>
-      <c r="B10" s="148"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1">
       <c r="A11" s="23" t="s">
@@ -5449,25 +5337,25 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="23.45">
-      <c r="A12" s="155"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="156" t="s">
+      <c r="A12" s="148"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="159" t="s">
+      <c r="D12" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="151" t="s">
+      <c r="F12" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
     </row>
     <row r="13" spans="1:8" ht="18.95" thickBot="1">
-      <c r="A13" s="157"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="160"/>
+      <c r="A13" s="150"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="153"/>
       <c r="F13" s="34"/>
       <c r="G13" s="35" t="s">
         <v>10</v>
@@ -5498,7 +5386,7 @@
       <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:8" ht="28.5" thickBot="1">
-      <c r="A15" s="152" t="s">
+      <c r="A15" s="145" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -5521,7 +5409,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="42.6" thickBot="1">
-      <c r="A16" s="154"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="30" t="s">
         <v>25</v>
       </c>
@@ -5540,7 +5428,7 @@
       <c r="H16" s="33"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="145" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="29" t="s">
@@ -5561,7 +5449,7 @@
       <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8" ht="28.5" thickBot="1">
-      <c r="A18" s="153"/>
+      <c r="A18" s="146"/>
       <c r="B18" s="30" t="s">
         <v>36</v>
       </c>
@@ -5580,7 +5468,7 @@
       <c r="H18" s="33"/>
     </row>
     <row r="19" spans="1:8" ht="70.5" thickBot="1">
-      <c r="A19" s="154"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="29" t="s">
         <v>41</v>
       </c>
@@ -5599,7 +5487,7 @@
       <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8" ht="28.5" thickBot="1">
-      <c r="A20" s="152" t="s">
+      <c r="A20" s="145" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -5618,7 +5506,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1">
-      <c r="A21" s="153"/>
+      <c r="A21" s="146"/>
       <c r="B21" s="29" t="s">
         <v>51</v>
       </c>
@@ -5635,7 +5523,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1">
-      <c r="A22" s="153"/>
+      <c r="A22" s="146"/>
       <c r="B22" s="30" t="s">
         <v>54</v>
       </c>
@@ -5650,7 +5538,7 @@
       <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1">
-      <c r="A23" s="154"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="29" t="s">
         <v>57</v>
       </c>
@@ -5682,7 +5570,7 @@
       <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1">
-      <c r="A25" s="152" t="s">
+      <c r="A25" s="145" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="29" t="s">
@@ -5699,7 +5587,7 @@
       <c r="H25" s="33"/>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1">
-      <c r="A26" s="153"/>
+      <c r="A26" s="146"/>
       <c r="B26" s="30" t="s">
         <v>66</v>
       </c>
@@ -5714,7 +5602,7 @@
       <c r="H26" s="33"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1">
-      <c r="A27" s="153"/>
+      <c r="A27" s="146"/>
       <c r="B27" s="29" t="s">
         <v>69</v>
       </c>
@@ -5731,7 +5619,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1">
-      <c r="A28" s="154"/>
+      <c r="A28" s="147"/>
       <c r="B28" s="30" t="s">
         <v>73</v>
       </c>
@@ -5746,7 +5634,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1">
-      <c r="A29" s="152" t="s">
+      <c r="A29" s="145" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="29" t="s">
@@ -5763,7 +5651,7 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1">
-      <c r="A30" s="153"/>
+      <c r="A30" s="146"/>
       <c r="B30" s="30" t="s">
         <v>80</v>
       </c>
@@ -5780,7 +5668,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1">
-      <c r="A31" s="153"/>
+      <c r="A31" s="146"/>
       <c r="B31" s="29" t="s">
         <v>84</v>
       </c>
@@ -5789,13 +5677,13 @@
       <c r="F31" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="161" t="s">
+      <c r="G31" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="162"/>
+      <c r="H31" s="155"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1">
-      <c r="A32" s="154"/>
+      <c r="A32" s="147"/>
       <c r="B32" s="30" t="s">
         <v>87</v>
       </c>
@@ -5804,19 +5692,19 @@
       <c r="F32" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="161" t="s">
+      <c r="G32" s="154" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="162"/>
+      <c r="H32" s="155"/>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="149" t="s">
+      <c r="G33" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="150"/>
+      <c r="H33" s="143"/>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" s="31" t="s">
@@ -6096,14 +5984,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="43.7" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="158" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
     </row>
     <row r="4" spans="1:6" ht="28.5">
       <c r="A4" s="2" t="s">
@@ -6126,7 +6014,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.700000000000003" customHeight="1">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="159" t="s">
         <v>147</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6140,7 +6028,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="166"/>
+      <c r="A6" s="159"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
         <v>150</v>
@@ -6150,7 +6038,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="166"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>151</v>
@@ -6160,7 +6048,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="166"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
         <v>152</v>
@@ -6170,7 +6058,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="166"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
         <v>153</v>
@@ -6180,7 +6068,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="166"/>
+      <c r="A10" s="159"/>
       <c r="B10" s="3" t="s">
         <v>154</v>
       </c>
@@ -6192,7 +6080,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="166"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
         <v>156</v>
@@ -6202,7 +6090,7 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="166"/>
+      <c r="A12" s="159"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
         <v>157</v>
@@ -6212,7 +6100,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="166"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="3" t="s">
         <v>154</v>
       </c>
@@ -6238,7 +6126,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" s="41" customFormat="1" ht="57.95">
-      <c r="A15" s="167" t="s">
+      <c r="A15" s="160" t="s">
         <v>162</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -6254,7 +6142,7 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="72.599999999999994">
-      <c r="A16" s="167"/>
+      <c r="A16" s="160"/>
       <c r="B16" s="6" t="s">
         <v>166</v>
       </c>
@@ -6268,7 +6156,7 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="43.5">
-      <c r="A17" s="167"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="6" t="s">
         <v>169</v>
       </c>
@@ -6282,7 +6170,7 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="57.95">
-      <c r="A18" s="167"/>
+      <c r="A18" s="160"/>
       <c r="B18" s="6" t="s">
         <v>172</v>
       </c>
@@ -6296,7 +6184,7 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="116.1">
-      <c r="A19" s="167"/>
+      <c r="A19" s="160"/>
       <c r="B19" s="6" t="s">
         <v>175</v>
       </c>
@@ -6310,7 +6198,7 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="29.1">
-      <c r="A20" s="167"/>
+      <c r="A20" s="160"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
         <v>178</v>
@@ -6322,7 +6210,7 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="72.599999999999994">
-      <c r="A21" s="168" t="s">
+      <c r="A21" s="161" t="s">
         <v>180</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -6338,7 +6226,7 @@
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="72.599999999999994">
-      <c r="A22" s="168"/>
+      <c r="A22" s="161"/>
       <c r="B22" s="11" t="s">
         <v>183</v>
       </c>
@@ -6352,7 +6240,7 @@
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" ht="57.95">
-      <c r="A23" s="168"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="11" t="s">
         <v>185</v>
       </c>
@@ -6366,7 +6254,7 @@
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" ht="87">
-      <c r="A24" s="168"/>
+      <c r="A24" s="161"/>
       <c r="B24" s="11" t="s">
         <v>187</v>
       </c>
@@ -6380,7 +6268,7 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="29.1">
-      <c r="A25" s="169" t="s">
+      <c r="A25" s="162" t="s">
         <v>189</v>
       </c>
       <c r="B25" s="38" t="s">
@@ -6396,7 +6284,7 @@
       <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" ht="101.45">
-      <c r="A26" s="169"/>
+      <c r="A26" s="162"/>
       <c r="B26" s="38" t="s">
         <v>193</v>
       </c>
@@ -6410,7 +6298,7 @@
       <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" ht="43.5">
-      <c r="A27" s="169"/>
+      <c r="A27" s="162"/>
       <c r="B27" s="38" t="s">
         <v>196</v>
       </c>
@@ -6424,7 +6312,7 @@
       <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="163" t="s">
+      <c r="A28" s="156" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -6440,7 +6328,7 @@
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="163"/>
+      <c r="A29" s="156"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
         <v>203</v>
@@ -6452,7 +6340,7 @@
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="43.5">
-      <c r="A30" s="163"/>
+      <c r="A30" s="156"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13" t="s">
         <v>205</v>
@@ -6464,7 +6352,7 @@
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" ht="72.599999999999994">
-      <c r="A31" s="163"/>
+      <c r="A31" s="156"/>
       <c r="B31" s="16" t="s">
         <v>207</v>
       </c>
@@ -6478,7 +6366,7 @@
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" ht="43.5">
-      <c r="A32" s="163"/>
+      <c r="A32" s="156"/>
       <c r="B32" s="12"/>
       <c r="C32" s="13" t="s">
         <v>210</v>
@@ -6532,7 +6420,7 @@
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" s="41" customFormat="1">
-      <c r="A36" s="164" t="s">
+      <c r="A36" s="157" t="s">
         <v>220</v>
       </c>
       <c r="B36" s="38" t="s">
@@ -6548,7 +6436,7 @@
       <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6" ht="43.5">
-      <c r="A37" s="164"/>
+      <c r="A37" s="157"/>
       <c r="B37" s="40" t="s">
         <v>224</v>
       </c>
@@ -6735,8 +6623,8 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -6749,20 +6637,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="164" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
     </row>
     <row r="3" spans="1:5" ht="21">
       <c r="A3" s="54" t="s">
@@ -6782,7 +6670,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="139.5" customHeight="1">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="189" t="s">
         <v>244</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -6799,7 +6687,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="108.6" customHeight="1">
-      <c r="A5" s="208"/>
+      <c r="A5" s="190"/>
       <c r="B5" s="53" t="s">
         <v>249</v>
       </c>
@@ -6814,7 +6702,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="77.45" customHeight="1">
-      <c r="A6" s="208"/>
+      <c r="A6" s="190"/>
       <c r="B6" s="53" t="s">
         <v>253</v>
       </c>
@@ -6827,11 +6715,11 @@
       <c r="E6" s="53"/>
     </row>
     <row r="7" spans="1:5" ht="186" customHeight="1">
-      <c r="A7" s="208"/>
+      <c r="A7" s="190"/>
       <c r="B7" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="92" t="s">
         <v>257</v>
       </c>
       <c r="D7" s="53" t="s">
@@ -6842,7 +6730,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="108.6" customHeight="1">
-      <c r="A8" s="208"/>
+      <c r="A8" s="190"/>
       <c r="B8" s="53" t="s">
         <v>260</v>
       </c>
@@ -6857,11 +6745,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="108.6" customHeight="1">
-      <c r="A9" s="209"/>
+      <c r="A9" s="191"/>
       <c r="B9" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="92" t="s">
         <v>264</v>
       </c>
       <c r="D9" s="53" t="s">
@@ -6910,22 +6798,22 @@
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
     </row>
-    <row r="13" spans="1:5" ht="139.5">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56" t="s">
+    <row r="13" spans="1:5" s="209" customFormat="1" ht="139.5">
+      <c r="A13" s="207"/>
+      <c r="B13" s="208" t="s">
         <v>256</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="208" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="208" t="s">
         <v>275</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="208" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="123.95">
+    <row r="14" spans="1:5" ht="146.25">
       <c r="A14" s="57" t="s">
         <v>277</v>
       </c>
@@ -6970,7 +6858,7 @@
       </c>
       <c r="E16" s="58"/>
     </row>
-    <row r="17" spans="1:5" ht="30.95">
+    <row r="17" spans="1:5" ht="32.25">
       <c r="A17" s="57"/>
       <c r="B17" s="58" t="s">
         <v>256</v>
@@ -6983,7 +6871,7 @@
       </c>
       <c r="E17" s="58"/>
     </row>
-    <row r="18" spans="1:5" ht="93">
+    <row r="18" spans="1:5" ht="96.75">
       <c r="A18" s="57"/>
       <c r="B18" s="58" t="s">
         <v>256</v>
@@ -7015,7 +6903,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="108.6">
+    <row r="20" spans="1:5" ht="129">
       <c r="A20" s="59"/>
       <c r="B20" s="64" t="s">
         <v>256</v>
@@ -7050,7 +6938,7 @@
       <c r="B22" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="125" t="s">
         <v>303</v>
       </c>
       <c r="D22" s="64" t="s">
@@ -7138,15 +7026,15 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.600000000000001">
-      <c r="A28" s="170" t="s">
+      <c r="A28" s="163" t="s">
         <v>323</v>
       </c>
-      <c r="B28" s="170"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-    </row>
-    <row r="29" spans="1:5" ht="46.5">
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+    </row>
+    <row r="29" spans="1:5" ht="48.75">
       <c r="A29" s="67" t="s">
         <v>324</v>
       </c>
@@ -7240,9 +7128,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8235AC61-37E0-408C-94E0-2DE6AA05BAB6}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -7257,28 +7145,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="259" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="245"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="247"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="261"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="96" t="s">
         <v>342</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="117" t="s">
         <v>343</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="98" t="s">
         <v>344</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="97" t="s">
         <v>345</v>
       </c>
       <c r="F2" s="87" t="s">
@@ -7286,19 +7174,19 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="166" t="s">
         <v>347</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="107" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="116" t="s">
         <v>349</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="93" t="s">
         <v>350</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="99" t="s">
         <v>351</v>
       </c>
       <c r="F3" s="90" t="s">
@@ -7306,17 +7194,17 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="27">
-      <c r="A4" s="174"/>
+      <c r="A4" s="167"/>
       <c r="B4" s="89" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="210" t="s">
+      <c r="C4" s="192" t="s">
         <v>353</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="94" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="100" t="s">
         <v>351</v>
       </c>
       <c r="F4" s="90" t="s">
@@ -7324,17 +7212,17 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="174"/>
+      <c r="A5" s="167"/>
       <c r="B5" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="113" t="s">
         <v>356</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="94" t="s">
         <v>357</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="100" t="s">
         <v>351</v>
       </c>
       <c r="F5" s="90" t="s">
@@ -7342,17 +7230,17 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1">
-      <c r="A6" s="174"/>
-      <c r="B6" s="115" t="s">
+      <c r="A6" s="167"/>
+      <c r="B6" s="114" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="115" t="s">
         <v>359</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="104" t="s">
+      <c r="E6" s="103" t="s">
         <v>351</v>
       </c>
       <c r="F6" s="90" t="s">
@@ -7360,38 +7248,38 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="27">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="166" t="s">
         <v>361</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="110" t="s">
         <v>362</v>
       </c>
-      <c r="C7" s="211" t="s">
+      <c r="C7" s="193" t="s">
         <v>363</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="122" t="s">
         <v>364</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="99" t="s">
         <v>351</v>
       </c>
       <c r="F7" s="90" t="s">
         <v>351</v>
       </c>
-      <c r="H7" s="113"/>
+      <c r="H7" s="112"/>
     </row>
     <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="174"/>
-      <c r="B8" s="105" t="s">
+      <c r="A8" s="167"/>
+      <c r="B8" s="104" t="s">
         <v>365</v>
       </c>
-      <c r="C8" s="212" t="s">
+      <c r="C8" s="194" t="s">
         <v>366</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="123" t="s">
         <v>367</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="100" t="s">
         <v>351</v>
       </c>
       <c r="F8" s="90" t="s">
@@ -7399,17 +7287,17 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="174"/>
-      <c r="B9" s="105" t="s">
+      <c r="A9" s="167"/>
+      <c r="B9" s="104" t="s">
         <v>368</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="118" t="s">
         <v>369</v>
       </c>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="123" t="s">
         <v>370</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="100" t="s">
         <v>351</v>
       </c>
       <c r="F9" s="90" t="s">
@@ -7417,17 +7305,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="174"/>
-      <c r="B10" s="105" t="s">
+      <c r="A10" s="167"/>
+      <c r="B10" s="104" t="s">
         <v>371</v>
       </c>
-      <c r="C10" s="212" t="s">
+      <c r="C10" s="194" t="s">
         <v>372</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="123" t="s">
         <v>373</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="100" t="s">
         <v>351</v>
       </c>
       <c r="F10" s="90" t="s">
@@ -7435,17 +7323,17 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="27">
-      <c r="A11" s="175"/>
-      <c r="B11" s="112" t="s">
+      <c r="A11" s="168"/>
+      <c r="B11" s="111" t="s">
         <v>374</v>
       </c>
-      <c r="C11" s="213" t="s">
+      <c r="C11" s="195" t="s">
         <v>375</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="124" t="s">
         <v>376</v>
       </c>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="101" t="s">
         <v>351</v>
       </c>
       <c r="F11" s="90" t="s">
@@ -7453,19 +7341,19 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="169" t="s">
         <v>377</v>
       </c>
       <c r="B12" s="88" t="s">
         <v>378</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="119" t="s">
         <v>379</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="94" t="s">
         <v>380</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="100" t="s">
         <v>351</v>
       </c>
       <c r="F12" s="90" t="s">
@@ -7473,17 +7361,17 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="176"/>
+      <c r="A13" s="169"/>
       <c r="B13" s="88" t="s">
         <v>381</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="C13" s="119" t="s">
         <v>382</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="94" t="s">
         <v>383</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="100" t="s">
         <v>351</v>
       </c>
       <c r="F13" s="90" t="s">
@@ -7491,17 +7379,17 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="27">
-      <c r="A14" s="176"/>
+      <c r="A14" s="169"/>
       <c r="B14" s="88" t="s">
         <v>384</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="128" t="s">
         <v>288</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="94" t="s">
         <v>385</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="100" t="s">
         <v>351</v>
       </c>
       <c r="F14" s="90" t="s">
@@ -7509,17 +7397,17 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="176"/>
+      <c r="A15" s="169"/>
       <c r="B15" s="88" t="s">
         <v>386</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="119" t="s">
         <v>387</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="94" t="s">
         <v>388</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E15" s="100" t="s">
         <v>351</v>
       </c>
       <c r="F15" s="90" t="s">
@@ -7527,17 +7415,17 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1">
-      <c r="A16" s="177"/>
-      <c r="B16" s="109" t="s">
+      <c r="A16" s="170"/>
+      <c r="B16" s="108" t="s">
         <v>389</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="120" t="s">
         <v>390</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="95" t="s">
         <v>391</v>
       </c>
-      <c r="E16" s="104" t="s">
+      <c r="E16" s="103" t="s">
         <v>351</v>
       </c>
       <c r="F16" s="90" t="s">
@@ -7545,19 +7433,19 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="178" t="s">
+      <c r="A17" s="171" t="s">
         <v>392</v>
       </c>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="106" t="s">
         <v>393</v>
       </c>
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="121" t="s">
         <v>394</v>
       </c>
-      <c r="D17" s="137" t="s">
+      <c r="D17" s="130" t="s">
         <v>395</v>
       </c>
-      <c r="E17" s="139" t="s">
+      <c r="E17" s="132" t="s">
         <v>351</v>
       </c>
       <c r="F17" s="90" t="s">
@@ -7565,17 +7453,17 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="27">
-      <c r="A18" s="176"/>
+      <c r="A18" s="169"/>
       <c r="B18" s="88" t="s">
         <v>396</v>
       </c>
-      <c r="C18" s="214" t="s">
+      <c r="C18" s="196" t="s">
         <v>397</v>
       </c>
-      <c r="D18" s="215" t="s">
+      <c r="D18" s="197" t="s">
         <v>398</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="133" t="s">
         <v>351</v>
       </c>
       <c r="F18" s="90" t="s">
@@ -7583,17 +7471,17 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="176"/>
+      <c r="A19" s="169"/>
       <c r="B19" s="88" t="s">
         <v>399</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="119" t="s">
         <v>400</v>
       </c>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="131" t="s">
         <v>401</v>
       </c>
-      <c r="E19" s="140" t="s">
+      <c r="E19" s="133" t="s">
         <v>351</v>
       </c>
       <c r="F19" s="90" t="s">
@@ -7601,17 +7489,17 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="27">
-      <c r="A20" s="176"/>
+      <c r="A20" s="169"/>
       <c r="B20" s="88" t="s">
         <v>402</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="128" t="s">
         <v>403</v>
       </c>
-      <c r="D20" s="138" t="s">
+      <c r="D20" s="131" t="s">
         <v>404</v>
       </c>
-      <c r="E20" s="140" t="s">
+      <c r="E20" s="133" t="s">
         <v>351</v>
       </c>
       <c r="F20" s="90" t="s">
@@ -7619,17 +7507,17 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="27">
-      <c r="A21" s="176"/>
-      <c r="B21" s="142" t="s">
+      <c r="A21" s="169"/>
+      <c r="B21" s="135" t="s">
         <v>405</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="126" t="s">
         <v>406</v>
       </c>
-      <c r="D21" s="143" t="s">
+      <c r="D21" s="136" t="s">
         <v>407</v>
       </c>
-      <c r="E21" s="141" t="s">
+      <c r="E21" s="134" t="s">
         <v>351</v>
       </c>
       <c r="F21" s="90" t="s">
@@ -7637,19 +7525,19 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="27">
-      <c r="A22" s="179" t="s">
+      <c r="A22" s="172" t="s">
         <v>408</v>
       </c>
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="107" t="s">
         <v>409</v>
       </c>
-      <c r="C22" s="216" t="s">
+      <c r="C22" s="198" t="s">
         <v>410</v>
       </c>
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="107" t="s">
         <v>411</v>
       </c>
-      <c r="E22" s="144" t="s">
+      <c r="E22" s="137" t="s">
         <v>351</v>
       </c>
       <c r="F22" s="90" t="s">
@@ -7657,7 +7545,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="180"/>
+      <c r="A23" s="173"/>
       <c r="B23" s="89" t="s">
         <v>412</v>
       </c>
@@ -7667,7 +7555,7 @@
       <c r="D23" s="89" t="s">
         <v>414</v>
       </c>
-      <c r="E23" s="145" t="s">
+      <c r="E23" s="138" t="s">
         <v>351</v>
       </c>
       <c r="F23" s="90" t="s">
@@ -7675,7 +7563,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="173" t="s">
         <v>408</v>
       </c>
       <c r="B24" s="89" t="s">
@@ -7687,7 +7575,7 @@
       <c r="D24" s="89" t="s">
         <v>417</v>
       </c>
-      <c r="E24" s="145" t="s">
+      <c r="E24" s="138" t="s">
         <v>351</v>
       </c>
       <c r="F24" s="90" t="s">
@@ -7695,7 +7583,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="180"/>
+      <c r="A25" s="173"/>
       <c r="B25" s="89" t="s">
         <v>418</v>
       </c>
@@ -7705,7 +7593,7 @@
       <c r="D25" s="89" t="s">
         <v>420</v>
       </c>
-      <c r="E25" s="145" t="s">
+      <c r="E25" s="138" t="s">
         <v>351</v>
       </c>
       <c r="F25" s="90" t="s">
@@ -7713,17 +7601,17 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1">
-      <c r="A26" s="181"/>
-      <c r="B26" s="110" t="s">
+      <c r="A26" s="174"/>
+      <c r="B26" s="109" t="s">
         <v>421</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="109" t="s">
         <v>422</v>
       </c>
-      <c r="D26" s="110" t="s">
+      <c r="D26" s="109" t="s">
         <v>423</v>
       </c>
-      <c r="E26" s="146" t="s">
+      <c r="E26" s="139" t="s">
         <v>351</v>
       </c>
       <c r="F26" s="90" t="s">
@@ -8977,74 +8865,71 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4186645-639B-4438-8165-ADA46301107B}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50:D51"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="3" width="78.85546875" customWidth="1"/>
-    <col min="4" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="61.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="232" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" customWidth="1"/>
+    <col min="6" max="6" width="55.7109375" customWidth="1"/>
+    <col min="7" max="7" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="248"/>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="249"/>
-    </row>
-    <row r="2" spans="1:8">
+    <row r="1" spans="1:7" ht="21">
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="263"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="91" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128" t="s">
+      <c r="B2" s="222"/>
+      <c r="C2" s="127" t="s">
         <v>144</v>
       </c>
+      <c r="D2" s="91" t="s">
+        <v>243</v>
+      </c>
       <c r="E2" s="91" t="s">
-        <v>243</v>
+        <v>473</v>
       </c>
       <c r="F2" s="91" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>474</v>
-      </c>
-      <c r="H2" s="91" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" customHeight="1">
+    <row r="3" spans="1:7" ht="14.45" customHeight="1">
       <c r="A3" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="219" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="246" t="s">
         <v>475</v>
       </c>
-      <c r="C3" s="242" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="218" t="s">
+      <c r="D3" s="199" t="s">
         <v>476</v>
       </c>
-      <c r="E3" s="221" t="s">
-        <v>477</v>
+      <c r="E3" s="89" t="s">
+        <v>351</v>
       </c>
       <c r="F3" s="89" t="s">
         <v>351</v>
@@ -9052,251 +8937,202 @@
       <c r="G3" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H3" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1">
+    </row>
+    <row r="4" spans="1:7" ht="14.45" customHeight="1">
       <c r="A4" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="B4" s="120" t="s">
-        <v>475</v>
-      </c>
-      <c r="C4" s="243"/>
-      <c r="D4" s="219" t="s">
-        <v>478</v>
-      </c>
-      <c r="E4" s="222"/>
-      <c r="F4" s="89"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="G4" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H4" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="26.45" customHeight="1">
+    </row>
+    <row r="5" spans="1:7" ht="26.45" customHeight="1">
       <c r="A5" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="120" t="s">
-        <v>475</v>
-      </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="220" t="s">
-        <v>479</v>
-      </c>
-      <c r="E5" s="222"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F5" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G5" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H5" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1">
+    </row>
+    <row r="6" spans="1:7" ht="14.45" customHeight="1">
       <c r="A6" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="B6" s="120" t="s">
-        <v>475</v>
-      </c>
-      <c r="C6" s="243"/>
-      <c r="D6" s="220" t="s">
-        <v>480</v>
-      </c>
-      <c r="E6" s="222"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="114" t="s">
+        <v>351</v>
+      </c>
       <c r="F6" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G6" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H6" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="B7" s="120" t="s">
-        <v>475</v>
-      </c>
-      <c r="C7" s="244"/>
-      <c r="D7" s="226" t="s">
-        <v>481</v>
-      </c>
-      <c r="E7" s="222"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="239" t="s">
+        <v>351</v>
+      </c>
       <c r="F7" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G7" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H7" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27">
+    </row>
+    <row r="8" spans="1:7" ht="27" customHeight="1">
       <c r="A8" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="C8" s="242" t="s">
+        <v>477</v>
+      </c>
+      <c r="B8" s="219" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="223" t="s">
-        <v>484</v>
-      </c>
-      <c r="E8" s="224" t="s">
+      <c r="C8" s="182" t="s">
+        <v>478</v>
+      </c>
+      <c r="D8" s="201" t="s">
         <v>251</v>
       </c>
+      <c r="E8" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F8" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G8" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H8" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="B9" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="C9" s="244"/>
-      <c r="D9" s="226" t="s">
-        <v>485</v>
-      </c>
-      <c r="E9" s="225"/>
+        <v>477</v>
+      </c>
+      <c r="B9" s="221"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F9" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G9" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H9" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="78" customHeight="1">
+    </row>
+    <row r="10" spans="1:7" ht="78" customHeight="1">
       <c r="A10" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>254</v>
-      </c>
-      <c r="C10" s="242" t="s">
+      <c r="B10" s="219" t="s">
         <v>356</v>
       </c>
-      <c r="D10" s="227" t="s">
-        <v>486</v>
-      </c>
-      <c r="E10" s="221" t="s">
+      <c r="C10" s="243" t="s">
+        <v>479</v>
+      </c>
+      <c r="D10" s="199" t="s">
         <v>255</v>
       </c>
+      <c r="E10" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F10" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G10" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H10" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.45" customHeight="1">
+    </row>
+    <row r="11" spans="1:7" ht="14.45" customHeight="1">
       <c r="A11" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="B11" s="89" t="s">
-        <v>254</v>
-      </c>
+      <c r="B11" s="220"/>
       <c r="C11" s="243"/>
-      <c r="D11" s="220" t="s">
-        <v>487</v>
-      </c>
-      <c r="E11" s="222"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F11" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G11" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H11" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.45" customHeight="1">
+    </row>
+    <row r="12" spans="1:7" ht="14.45" customHeight="1">
       <c r="A12" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="89" t="s">
-        <v>254</v>
-      </c>
+      <c r="B12" s="220"/>
       <c r="C12" s="243"/>
-      <c r="D12" s="220" t="s">
-        <v>488</v>
-      </c>
-      <c r="E12" s="222"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F12" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G12" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H12" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="89" t="s">
-        <v>254</v>
-      </c>
+      <c r="B13" s="221"/>
       <c r="C13" s="244"/>
-      <c r="D13" s="226" t="s">
-        <v>489</v>
-      </c>
-      <c r="E13" s="222"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F13" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G13" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H13" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="27">
+    </row>
+    <row r="14" spans="1:7" ht="27" customHeight="1">
       <c r="A14" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="120" t="s">
-        <v>403</v>
-      </c>
-      <c r="C14" s="242" t="s">
-        <v>490</v>
-      </c>
-      <c r="D14" s="218" t="s">
-        <v>491</v>
-      </c>
-      <c r="E14" s="228" t="s">
-        <v>492</v>
+      <c r="B14" s="219" t="s">
+        <v>480</v>
+      </c>
+      <c r="C14" s="180" t="s">
+        <v>481</v>
+      </c>
+      <c r="D14" s="203" t="s">
+        <v>482</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>351</v>
       </c>
       <c r="F14" s="89" t="s">
         <v>351</v>
@@ -9304,91 +9140,73 @@
       <c r="G14" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H14" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="120" t="s">
-        <v>403</v>
-      </c>
-      <c r="C15" s="243"/>
-      <c r="D15" s="220" t="s">
-        <v>493</v>
-      </c>
-      <c r="E15" s="229"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F15" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G15" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H15" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="120" t="s">
-        <v>403</v>
-      </c>
-      <c r="C16" s="243"/>
-      <c r="D16" s="220" t="s">
-        <v>494</v>
-      </c>
-      <c r="E16" s="229"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F16" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G16" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H16" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="B17" s="120" t="s">
-        <v>403</v>
-      </c>
-      <c r="C17" s="244"/>
-      <c r="D17" s="226" t="s">
-        <v>495</v>
-      </c>
-      <c r="E17" s="229"/>
+      <c r="B17" s="221"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F17" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G17" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H17" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="120" t="s">
-        <v>496</v>
-      </c>
-      <c r="C18" s="242" t="s">
+      <c r="B18" s="219" t="s">
         <v>363</v>
       </c>
-      <c r="D18" s="218" t="s">
-        <v>497</v>
-      </c>
-      <c r="E18" s="228" t="s">
-        <v>498</v>
+      <c r="C18" s="180" t="s">
+        <v>483</v>
+      </c>
+      <c r="D18" s="203" t="s">
+        <v>484</v>
+      </c>
+      <c r="E18" s="89" t="s">
+        <v>351</v>
       </c>
       <c r="F18" s="89" t="s">
         <v>351</v>
@@ -9396,91 +9214,73 @@
       <c r="G18" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H18" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="120" t="s">
-        <v>496</v>
-      </c>
-      <c r="C19" s="243"/>
-      <c r="D19" s="220" t="s">
-        <v>499</v>
-      </c>
-      <c r="E19" s="229"/>
+      <c r="B19" s="220"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F19" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G19" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H19" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="27">
+    </row>
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="120" t="s">
-        <v>496</v>
-      </c>
-      <c r="C20" s="243"/>
-      <c r="D20" s="220" t="s">
-        <v>500</v>
-      </c>
-      <c r="E20" s="229"/>
+      <c r="B20" s="220"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F20" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G20" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H20" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="27">
+    </row>
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="120" t="s">
-        <v>496</v>
-      </c>
-      <c r="C21" s="244"/>
-      <c r="D21" s="226" t="s">
-        <v>501</v>
-      </c>
-      <c r="E21" s="229"/>
+      <c r="B21" s="220"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F21" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G21" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H21" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="51.95" customHeight="1">
-      <c r="A22" s="89" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="51.95" customHeight="1">
+      <c r="A22" s="119" t="s">
         <v>256</v>
       </c>
-      <c r="B22" s="130" t="s">
-        <v>502</v>
-      </c>
-      <c r="C22" s="239" t="s">
+      <c r="B22" s="212" t="s">
         <v>366</v>
       </c>
-      <c r="D22" s="230" t="s">
+      <c r="C22" s="246" t="s">
         <v>265</v>
       </c>
-      <c r="E22" s="228" t="s">
-        <v>503</v>
+      <c r="D22" s="203" t="s">
+        <v>485</v>
+      </c>
+      <c r="E22" s="89" t="s">
+        <v>351</v>
       </c>
       <c r="F22" s="89" t="s">
         <v>351</v>
@@ -9488,65 +9288,50 @@
       <c r="G22" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H22" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="26.1" customHeight="1">
-      <c r="A23" s="89" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="26.1" customHeight="1">
+      <c r="A23" s="119" t="s">
         <v>256</v>
       </c>
-      <c r="B23" s="130" t="s">
-        <v>502</v>
-      </c>
-      <c r="C23" s="240"/>
-      <c r="D23" s="231"/>
-      <c r="E23" s="229"/>
+      <c r="B23" s="213"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F23" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G23" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H23" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="26.45" customHeight="1">
-      <c r="A24" s="89" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="26.45" customHeight="1">
+      <c r="A24" s="119" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="130" t="s">
-        <v>502</v>
-      </c>
-      <c r="C24" s="241"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="229"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F24" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G24" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H24" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="A25" s="89" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1">
+      <c r="A25" s="119" t="s">
         <v>249</v>
       </c>
-      <c r="B25" s="120" t="s">
-        <v>504</v>
-      </c>
-      <c r="C25" s="191" t="s">
-        <v>505</v>
-      </c>
-      <c r="D25" s="133" t="s">
-        <v>506</v>
-      </c>
-      <c r="E25" s="186" t="s">
-        <v>269</v>
+      <c r="B25" s="214"/>
+      <c r="C25" s="248"/>
+      <c r="D25" s="249"/>
+      <c r="E25" s="89" t="s">
+        <v>351</v>
       </c>
       <c r="F25" s="89" t="s">
         <v>351</v>
@@ -9554,67 +9339,56 @@
       <c r="G25" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H25" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="B26" s="120" t="s">
-        <v>504</v>
-      </c>
-      <c r="C26" s="192"/>
-      <c r="D26" s="133" t="s">
-        <v>507</v>
-      </c>
-      <c r="E26" s="187"/>
+      <c r="B26" s="212" t="s">
+        <v>486</v>
+      </c>
+      <c r="C26" s="179" t="s">
+        <v>487</v>
+      </c>
+      <c r="D26" s="203" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F26" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G26" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H26" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="B27" s="120" t="s">
-        <v>504</v>
-      </c>
-      <c r="C27" s="193"/>
-      <c r="D27" s="133" t="s">
-        <v>508</v>
-      </c>
-      <c r="E27" s="187"/>
+      <c r="B27" s="213"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F27" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G27" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H27" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1">
       <c r="A28" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="B28" s="130" t="s">
-        <v>509</v>
-      </c>
-      <c r="C28" s="239" t="s">
-        <v>510</v>
-      </c>
-      <c r="D28" s="233"/>
-      <c r="E28" s="221" t="s">
-        <v>272</v>
+      <c r="B28" s="213"/>
+      <c r="C28" s="180"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="89" t="s">
+        <v>351</v>
       </c>
       <c r="F28" s="89" t="s">
         <v>351</v>
@@ -9622,113 +9396,90 @@
       <c r="G28" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H28" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1">
       <c r="A29" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="B29" s="130" t="s">
-        <v>509</v>
-      </c>
-      <c r="C29" s="240"/>
-      <c r="D29" s="233" t="s">
-        <v>511</v>
-      </c>
-      <c r="E29" s="235"/>
+      <c r="B29" s="213"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F29" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G29" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H29" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="B30" s="130" t="s">
-        <v>509</v>
-      </c>
-      <c r="C30" s="240"/>
-      <c r="D30" s="233" t="s">
-        <v>512</v>
-      </c>
-      <c r="E30" s="235"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F30" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G30" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H30" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="B31" s="130" t="s">
-        <v>509</v>
-      </c>
-      <c r="C31" s="240"/>
-      <c r="D31" s="233" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="235"/>
+      <c r="B31" s="223" t="s">
+        <v>488</v>
+      </c>
+      <c r="C31" s="175" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" s="199" t="s">
+        <v>272</v>
+      </c>
+      <c r="E31" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F31" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G31" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H31" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="B32" s="130" t="s">
-        <v>509</v>
-      </c>
-      <c r="C32" s="241"/>
-      <c r="D32" s="234" t="s">
-        <v>514</v>
-      </c>
-      <c r="E32" s="236"/>
+      <c r="B32" s="224"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F32" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G32" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H32" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1">
       <c r="A33" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="B33" s="120" t="s">
-        <v>515</v>
-      </c>
-      <c r="C33" s="189" t="s">
-        <v>516</v>
-      </c>
-      <c r="D33" s="120" t="s">
-        <v>517</v>
-      </c>
-      <c r="E33" s="182" t="s">
-        <v>280</v>
+      <c r="B33" s="224"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="205"/>
+      <c r="E33" s="89" t="s">
+        <v>351</v>
       </c>
       <c r="F33" s="89" t="s">
         <v>351</v>
@@ -9736,135 +9487,107 @@
       <c r="G33" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H33" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1">
       <c r="A34" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="B34" s="120" t="s">
-        <v>515</v>
-      </c>
-      <c r="C34" s="190"/>
-      <c r="D34" s="120" t="s">
-        <v>518</v>
-      </c>
-      <c r="E34" s="183"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F34" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G34" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H34" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="B35" s="120" t="s">
-        <v>515</v>
-      </c>
-      <c r="C35" s="190"/>
-      <c r="D35" s="120" t="s">
-        <v>519</v>
-      </c>
-      <c r="E35" s="183"/>
+      <c r="B35" s="225"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F35" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G35" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H35" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="B36" s="120" t="s">
-        <v>515</v>
-      </c>
-      <c r="C36" s="190"/>
-      <c r="D36" s="120" t="s">
-        <v>520</v>
-      </c>
-      <c r="E36" s="183"/>
+      <c r="B36" s="219" t="s">
+        <v>489</v>
+      </c>
+      <c r="C36" s="175" t="s">
+        <v>280</v>
+      </c>
+      <c r="D36" s="199" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F36" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G36" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H36" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="B37" s="120" t="s">
-        <v>515</v>
-      </c>
-      <c r="C37" s="190"/>
-      <c r="D37" s="120" t="s">
-        <v>521</v>
-      </c>
-      <c r="E37" s="183"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F37" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G37" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H37" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="B38" s="120" t="s">
-        <v>515</v>
-      </c>
-      <c r="C38" s="200"/>
-      <c r="D38" s="120" t="s">
-        <v>522</v>
-      </c>
-      <c r="E38" s="183"/>
+      <c r="B38" s="220"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="205"/>
+      <c r="E38" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F38" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G38" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H38" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B39" s="120" t="s">
-        <v>524</v>
-      </c>
-      <c r="C39" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="D39" s="120" t="s">
-        <v>526</v>
-      </c>
-      <c r="E39" s="182" t="s">
-        <v>284</v>
+        <v>490</v>
+      </c>
+      <c r="B39" s="220"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="89" t="s">
+        <v>351</v>
       </c>
       <c r="F39" s="89" t="s">
         <v>351</v>
@@ -9872,47 +9595,33 @@
       <c r="G39" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H39" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B40" s="120" t="s">
-        <v>524</v>
-      </c>
-      <c r="C40" s="200"/>
-      <c r="D40" s="120" t="s">
-        <v>527</v>
-      </c>
-      <c r="E40" s="188"/>
+        <v>490</v>
+      </c>
+      <c r="B40" s="220"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F40" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G40" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H40" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="26.25">
+    </row>
+    <row r="41" spans="1:7" ht="15">
       <c r="A41" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="89" t="s">
-        <v>286</v>
-      </c>
-      <c r="C41" s="129" t="s">
-        <v>382</v>
-      </c>
-      <c r="D41" s="89" t="s">
-        <v>528</v>
-      </c>
-      <c r="E41" s="135" t="s">
-        <v>287</v>
+      <c r="B41" s="221"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="89" t="s">
+        <v>351</v>
       </c>
       <c r="F41" s="89" t="s">
         <v>351</v>
@@ -9920,143 +9629,125 @@
       <c r="G41" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H41" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="27">
+    </row>
+    <row r="42" spans="1:7" ht="27" customHeight="1">
       <c r="A42" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="B42" s="120" t="s">
+      <c r="B42" s="219" t="s">
+        <v>491</v>
+      </c>
+      <c r="C42" s="250" t="s">
+        <v>492</v>
+      </c>
+      <c r="D42" s="199" t="s">
+        <v>284</v>
+      </c>
+      <c r="E42" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F42" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G42" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="26.1" customHeight="1">
+      <c r="A43" s="89" t="s">
+        <v>493</v>
+      </c>
+      <c r="B43" s="221"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="206"/>
+      <c r="E43" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F43" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G43" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1">
+      <c r="A44" s="89" t="s">
+        <v>493</v>
+      </c>
+      <c r="B44" s="226" t="s">
+        <v>382</v>
+      </c>
+      <c r="C44" s="251" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44" s="217" t="s">
+        <v>287</v>
+      </c>
+      <c r="E44" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F44" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1">
+      <c r="A45" s="89" t="s">
+        <v>493</v>
+      </c>
+      <c r="B45" s="227" t="s">
         <v>288</v>
       </c>
-      <c r="C42" s="132" t="s">
-        <v>288</v>
-      </c>
-      <c r="D42" s="130" t="s">
-        <v>529</v>
-      </c>
-      <c r="E42" s="136" t="s">
+      <c r="C45" s="256" t="s">
         <v>289</v>
       </c>
-      <c r="F42" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G42" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="H42" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="26.1" customHeight="1">
-      <c r="A43" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="B43" s="120" t="s">
-        <v>531</v>
-      </c>
-      <c r="C43" s="189" t="s">
+      <c r="D45" s="218" t="s">
+        <v>289</v>
+      </c>
+      <c r="E45" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F45" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G45" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" customHeight="1">
+      <c r="A46" s="89" t="s">
+        <v>493</v>
+      </c>
+      <c r="B46" s="219" t="s">
         <v>387</v>
       </c>
-      <c r="D43" s="120" t="s">
-        <v>532</v>
-      </c>
-      <c r="E43" s="182" t="s">
-        <v>533</v>
-      </c>
-      <c r="F43" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G43" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="H43" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1">
-      <c r="A44" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="B44" s="120" t="s">
-        <v>531</v>
-      </c>
-      <c r="C44" s="190"/>
-      <c r="D44" s="120" t="s">
-        <v>534</v>
-      </c>
-      <c r="E44" s="183"/>
-      <c r="F44" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G44" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="H44" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1">
-      <c r="A45" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="B45" s="120" t="s">
-        <v>531</v>
-      </c>
-      <c r="C45" s="190"/>
-      <c r="D45" s="120" t="s">
-        <v>535</v>
-      </c>
-      <c r="E45" s="183"/>
-      <c r="F45" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G45" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="H45" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1">
-      <c r="A46" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="B46" s="120" t="s">
-        <v>531</v>
-      </c>
-      <c r="C46" s="200"/>
-      <c r="D46" s="120" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="183"/>
+      <c r="C46" s="175" t="s">
+        <v>494</v>
+      </c>
+      <c r="D46" s="199" t="s">
+        <v>495</v>
+      </c>
+      <c r="E46" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F46" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G46" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H46" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="26.45" customHeight="1">
+    </row>
+    <row r="47" spans="1:7" ht="26.45" customHeight="1">
       <c r="A47" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B47" s="120" t="s">
-        <v>536</v>
-      </c>
-      <c r="C47" s="189" t="s">
-        <v>537</v>
-      </c>
-      <c r="D47" s="130" t="s">
-        <v>538</v>
-      </c>
-      <c r="E47" s="182" t="s">
-        <v>539</v>
+        <v>490</v>
+      </c>
+      <c r="B47" s="220"/>
+      <c r="C47" s="176"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="89" t="s">
+        <v>351</v>
       </c>
       <c r="F47" s="89" t="s">
         <v>351</v>
@@ -10064,69 +9755,56 @@
       <c r="G47" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H47" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="53.25">
+    </row>
+    <row r="48" spans="1:7" ht="15">
       <c r="A48" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B48" s="120" t="s">
-        <v>328</v>
-      </c>
-      <c r="C48" s="190"/>
-      <c r="D48" s="130" t="s">
-        <v>540</v>
-      </c>
-      <c r="E48" s="184"/>
+        <v>490</v>
+      </c>
+      <c r="B48" s="220"/>
+      <c r="C48" s="176"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F48" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G48" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H48" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="40.5">
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1">
       <c r="A49" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B49" s="120" t="s">
-        <v>536</v>
-      </c>
-      <c r="C49" s="200"/>
-      <c r="D49" s="130" t="s">
-        <v>541</v>
-      </c>
-      <c r="E49" s="184"/>
+        <v>490</v>
+      </c>
+      <c r="B49" s="221"/>
+      <c r="C49" s="176"/>
+      <c r="D49" s="205"/>
+      <c r="E49" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F49" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G49" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H49" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1">
       <c r="A50" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="B50" s="120" t="s">
-        <v>542</v>
-      </c>
-      <c r="C50" s="189" t="s">
-        <v>543</v>
-      </c>
-      <c r="D50" s="120" t="s">
-        <v>544</v>
-      </c>
-      <c r="E50" s="182" t="s">
-        <v>545</v>
+      <c r="B50" s="215" t="s">
+        <v>496</v>
+      </c>
+      <c r="C50" s="175" t="s">
+        <v>497</v>
+      </c>
+      <c r="D50" s="175" t="s">
+        <v>497</v>
+      </c>
+      <c r="E50" s="89" t="s">
+        <v>351</v>
       </c>
       <c r="F50" s="89" t="s">
         <v>351</v>
@@ -10134,838 +9812,713 @@
       <c r="G50" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H50" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="51" spans="1:7" ht="31.5" customHeight="1">
       <c r="A51" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="B51" s="120" t="s">
-        <v>542</v>
-      </c>
-      <c r="C51" s="190"/>
-      <c r="D51" s="120" t="s">
-        <v>518</v>
-      </c>
-      <c r="E51" s="183"/>
+      <c r="B51" s="216"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F51" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G51" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H51" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1">
-      <c r="A52" s="89" t="s">
+    </row>
+    <row r="52" spans="1:7" ht="15" customHeight="1">
+      <c r="A52" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="B52" s="120" t="s">
-        <v>542</v>
-      </c>
-      <c r="C52" s="190"/>
-      <c r="D52" s="120" t="s">
-        <v>519</v>
-      </c>
-      <c r="E52" s="183"/>
+      <c r="B52" s="210" t="s">
+        <v>498</v>
+      </c>
+      <c r="C52" s="257" t="s">
+        <v>499</v>
+      </c>
+      <c r="D52" s="175" t="s">
+        <v>500</v>
+      </c>
+      <c r="E52" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F52" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G52" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H52" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1">
-      <c r="A53" s="89" t="s">
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1">
+      <c r="A53" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="B53" s="120" t="s">
-        <v>542</v>
-      </c>
-      <c r="C53" s="190"/>
-      <c r="D53" s="120" t="s">
-        <v>520</v>
-      </c>
-      <c r="E53" s="183"/>
+      <c r="B53" s="211"/>
+      <c r="C53" s="258"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F53" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G53" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H53" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1">
-      <c r="A54" s="89" t="s">
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1">
+      <c r="A54" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="B54" s="120" t="s">
-        <v>542</v>
-      </c>
-      <c r="C54" s="190"/>
-      <c r="D54" s="120" t="s">
-        <v>521</v>
-      </c>
-      <c r="E54" s="183"/>
+      <c r="B54" s="211"/>
+      <c r="C54" s="258"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F54" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G54" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H54" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1">
-      <c r="A55" s="89" t="s">
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1">
+      <c r="A55" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="B55" s="120" t="s">
-        <v>542</v>
-      </c>
-      <c r="C55" s="190"/>
-      <c r="D55" s="120" t="s">
-        <v>522</v>
-      </c>
-      <c r="E55" s="183"/>
+      <c r="B55" s="211"/>
+      <c r="C55" s="258"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F55" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G55" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H55" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1">
-      <c r="A56" s="89" t="s">
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1">
+      <c r="A56" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="B56" s="120" t="s">
-        <v>542</v>
-      </c>
-      <c r="C56" s="190"/>
-      <c r="D56" s="120" t="s">
-        <v>546</v>
-      </c>
-      <c r="E56" s="183"/>
+      <c r="B56" s="211"/>
+      <c r="C56" s="258"/>
+      <c r="D56" s="177"/>
+      <c r="E56" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F56" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G56" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H56" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1">
-      <c r="A57" s="89" t="s">
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1">
+      <c r="A57" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="B57" s="120" t="s">
-        <v>542</v>
-      </c>
-      <c r="C57" s="190"/>
-      <c r="D57" s="130" t="s">
-        <v>547</v>
-      </c>
-      <c r="E57" s="183"/>
+      <c r="B57" s="211"/>
+      <c r="C57" s="258"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F57" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G57" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H57" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1">
-      <c r="A58" s="89" t="s">
+    </row>
+    <row r="58" spans="1:7" ht="15" customHeight="1">
+      <c r="A58" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="B58" s="120" t="s">
-        <v>542</v>
-      </c>
-      <c r="C58" s="190"/>
-      <c r="D58" s="130" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="183"/>
+      <c r="B58" s="211"/>
+      <c r="C58" s="258"/>
+      <c r="D58" s="177"/>
+      <c r="E58" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F58" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G58" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H58" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1">
-      <c r="A59" s="89" t="s">
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1">
+      <c r="A59" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="B59" s="120" t="s">
-        <v>542</v>
-      </c>
-      <c r="C59" s="200"/>
-      <c r="D59" s="130" t="s">
-        <v>548</v>
-      </c>
-      <c r="E59" s="183"/>
+      <c r="B59" s="211"/>
+      <c r="C59" s="258"/>
+      <c r="D59" s="177"/>
+      <c r="E59" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F59" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G59" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H59" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1">
-      <c r="A60" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="B60" s="120" t="s">
-        <v>549</v>
-      </c>
-      <c r="C60" s="194" t="s">
-        <v>550</v>
-      </c>
-      <c r="D60" s="120" t="s">
-        <v>551</v>
-      </c>
-      <c r="E60" s="182" t="s">
+    </row>
+    <row r="60" spans="1:7" ht="15" customHeight="1">
+      <c r="A60" s="119" t="s">
+        <v>493</v>
+      </c>
+      <c r="B60" s="211"/>
+      <c r="C60" s="258"/>
+      <c r="D60" s="177"/>
+      <c r="E60" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F60" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G60" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" customHeight="1">
+      <c r="A61" s="119" t="s">
+        <v>493</v>
+      </c>
+      <c r="B61" s="211"/>
+      <c r="C61" s="258"/>
+      <c r="D61" s="177"/>
+      <c r="E61" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F61" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G61" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" customHeight="1">
+      <c r="A62" s="119" t="s">
+        <v>493</v>
+      </c>
+      <c r="B62" s="211"/>
+      <c r="C62" s="258"/>
+      <c r="D62" s="178"/>
+      <c r="E62" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F62" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G62" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" customHeight="1">
+      <c r="A63" s="119" t="s">
+        <v>493</v>
+      </c>
+      <c r="B63" s="228" t="s">
+        <v>501</v>
+      </c>
+      <c r="C63" s="199" t="s">
+        <v>502</v>
+      </c>
+      <c r="D63" s="200" t="s">
         <v>298</v>
       </c>
-      <c r="F60" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G60" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="H60" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1">
-      <c r="A61" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="B61" s="120" t="s">
-        <v>549</v>
-      </c>
-      <c r="C61" s="195"/>
-      <c r="D61" s="120" t="s">
-        <v>552</v>
-      </c>
-      <c r="E61" s="183"/>
-      <c r="F61" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G61" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="H61" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1">
-      <c r="A62" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="B62" s="120" t="s">
-        <v>549</v>
-      </c>
-      <c r="C62" s="195"/>
-      <c r="D62" s="120" t="s">
-        <v>553</v>
-      </c>
-      <c r="E62" s="183"/>
-      <c r="F62" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G62" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="H62" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1">
-      <c r="A63" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="B63" s="120" t="s">
-        <v>549</v>
-      </c>
-      <c r="C63" s="195"/>
-      <c r="D63" s="120" t="s">
-        <v>554</v>
-      </c>
-      <c r="E63" s="183"/>
+      <c r="E63" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F63" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G63" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H63" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1">
-      <c r="A64" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="B64" s="120" t="s">
-        <v>549</v>
-      </c>
-      <c r="C64" s="195"/>
-      <c r="D64" s="120" t="s">
-        <v>555</v>
-      </c>
-      <c r="E64" s="183"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" customHeight="1">
+      <c r="A64" s="119" t="s">
+        <v>493</v>
+      </c>
+      <c r="B64" s="230"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
+      <c r="E64" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F64" s="89" t="s">
         <v>351</v>
       </c>
       <c r="G64" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H64" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1">
-      <c r="A65" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="B65" s="120" t="s">
-        <v>549</v>
-      </c>
-      <c r="C65" s="195"/>
-      <c r="D65" s="120" t="s">
-        <v>556</v>
-      </c>
-      <c r="E65" s="183"/>
-      <c r="F65" s="89"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1">
+      <c r="A65" s="119" t="s">
+        <v>493</v>
+      </c>
+      <c r="B65" s="230"/>
+      <c r="C65" s="205"/>
+      <c r="D65" s="205"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="G65" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H65" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1">
-      <c r="A66" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="B66" s="120" t="s">
-        <v>549</v>
-      </c>
-      <c r="C66" s="238"/>
-      <c r="D66" s="120" t="s">
-        <v>557</v>
-      </c>
-      <c r="E66" s="183"/>
-      <c r="F66" s="89"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" customHeight="1">
+      <c r="A66" s="119" t="s">
+        <v>493</v>
+      </c>
+      <c r="B66" s="230"/>
+      <c r="C66" s="205"/>
+      <c r="D66" s="205"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="G66" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H66" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1">
-      <c r="A67" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B67" s="120" t="s">
-        <v>558</v>
-      </c>
-      <c r="C67" s="196" t="s">
-        <v>559</v>
-      </c>
-      <c r="D67" s="120" t="s">
-        <v>560</v>
-      </c>
-      <c r="E67" s="182" t="s">
+    </row>
+    <row r="67" spans="1:7" ht="15" customHeight="1">
+      <c r="A67" s="119" t="s">
+        <v>490</v>
+      </c>
+      <c r="B67" s="230"/>
+      <c r="C67" s="205"/>
+      <c r="D67" s="205"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G67" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" customHeight="1">
+      <c r="A68" s="119" t="s">
+        <v>490</v>
+      </c>
+      <c r="B68" s="230"/>
+      <c r="C68" s="205"/>
+      <c r="D68" s="205"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G68" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1">
+      <c r="A69" s="119" t="s">
+        <v>493</v>
+      </c>
+      <c r="B69" s="229"/>
+      <c r="C69" s="206"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G69" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" customHeight="1">
+      <c r="A70" s="89" t="s">
+        <v>493</v>
+      </c>
+      <c r="B70" s="220" t="s">
+        <v>503</v>
+      </c>
+      <c r="C70" s="253" t="s">
+        <v>504</v>
+      </c>
+      <c r="D70" s="199" t="s">
         <v>301</v>
       </c>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="H67" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1">
-      <c r="A68" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B68" s="120" t="s">
-        <v>558</v>
-      </c>
-      <c r="C68" s="197"/>
-      <c r="D68" s="120" t="s">
-        <v>561</v>
-      </c>
-      <c r="E68" s="183"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="H68" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1">
-      <c r="A69" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="B69" s="89" t="s">
-        <v>562</v>
-      </c>
-      <c r="C69" s="198" t="s">
+      <c r="E70" s="89"/>
+      <c r="F70" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G70" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" customHeight="1">
+      <c r="A71" s="89" t="s">
+        <v>493</v>
+      </c>
+      <c r="B71" s="221"/>
+      <c r="C71" s="254"/>
+      <c r="D71" s="205"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G71" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15">
+      <c r="A72" s="89" t="s">
+        <v>490</v>
+      </c>
+      <c r="B72" s="233" t="s">
         <v>403</v>
       </c>
-      <c r="D69" s="120" t="s">
-        <v>563</v>
-      </c>
-      <c r="E69" s="182" t="s">
+      <c r="C72" s="175" t="s">
+        <v>505</v>
+      </c>
+      <c r="D72" s="199" t="s">
         <v>304</v>
       </c>
-      <c r="F69" s="89"/>
-      <c r="G69" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="H69" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1">
-      <c r="A70" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="B70" s="89" t="s">
-        <v>562</v>
-      </c>
-      <c r="C70" s="199"/>
-      <c r="D70" s="120" t="s">
-        <v>564</v>
-      </c>
-      <c r="E70" s="183"/>
-      <c r="F70" s="89"/>
-      <c r="G70" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="H70" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1">
-      <c r="A71" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="B71" s="89" t="s">
-        <v>562</v>
-      </c>
-      <c r="C71" s="237"/>
-      <c r="D71" s="120" t="s">
-        <v>565</v>
-      </c>
-      <c r="E71" s="183"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="H71" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="27">
-      <c r="A72" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B72" s="92" t="s">
-        <v>566</v>
-      </c>
-      <c r="C72" s="189" t="s">
+      <c r="E72" s="89"/>
+      <c r="F72" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G72" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15">
+      <c r="A73" s="89" t="s">
+        <v>490</v>
+      </c>
+      <c r="B73" s="234"/>
+      <c r="C73" s="176"/>
+      <c r="D73" s="205"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G73" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15">
+      <c r="A74" s="89" t="s">
+        <v>490</v>
+      </c>
+      <c r="B74" s="235"/>
+      <c r="C74" s="176"/>
+      <c r="D74" s="205"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="G74" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1">
+      <c r="A75" s="89" t="s">
+        <v>490</v>
+      </c>
+      <c r="B75" s="219" t="s">
         <v>406</v>
       </c>
-      <c r="D72" s="120" t="s">
-        <v>567</v>
-      </c>
-      <c r="E72" s="182" t="s">
+      <c r="C75" s="175" t="s">
+        <v>506</v>
+      </c>
+      <c r="D75" s="199" t="s">
         <v>308</v>
       </c>
-      <c r="F72" s="89"/>
-      <c r="G72" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="H72" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="27">
-      <c r="A73" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B73" s="92" t="s">
-        <v>566</v>
-      </c>
-      <c r="C73" s="190"/>
-      <c r="D73" s="120" t="s">
-        <v>568</v>
-      </c>
-      <c r="E73" s="183"/>
-      <c r="F73" s="89"/>
-      <c r="G73" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="H73" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="27">
-      <c r="A74" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B74" s="92" t="s">
-        <v>566</v>
-      </c>
-      <c r="C74" s="200"/>
-      <c r="D74" s="120" t="s">
-        <v>569</v>
-      </c>
-      <c r="E74" s="183"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="H74" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1">
-      <c r="A75" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B75" s="89" t="s">
-        <v>570</v>
-      </c>
-      <c r="C75" s="189" t="s">
-        <v>410</v>
-      </c>
-      <c r="D75" s="120" t="s">
-        <v>571</v>
-      </c>
-      <c r="E75" s="182" t="s">
-        <v>572</v>
-      </c>
-      <c r="F75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="G75" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H75" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1">
       <c r="A76" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B76" s="89" t="s">
-        <v>570</v>
-      </c>
-      <c r="C76" s="190"/>
-      <c r="D76" s="120" t="s">
-        <v>573</v>
-      </c>
-      <c r="E76" s="183"/>
-      <c r="F76" s="89"/>
+        <v>490</v>
+      </c>
+      <c r="B76" s="220"/>
+      <c r="C76" s="176"/>
+      <c r="D76" s="205"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="G76" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="H76" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1">
       <c r="A77" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B77" s="89" t="s">
-        <v>570</v>
-      </c>
-      <c r="C77" s="190"/>
-      <c r="D77" s="120" t="s">
-        <v>574</v>
-      </c>
-      <c r="E77" s="183"/>
+        <v>490</v>
+      </c>
+      <c r="B77" s="221"/>
+      <c r="C77" s="176"/>
+      <c r="D77" s="205"/>
+      <c r="E77" s="89"/>
       <c r="F77" s="89"/>
       <c r="G77" s="89"/>
-      <c r="H77" s="89"/>
-    </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1">
       <c r="A78" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B78" s="89" t="s">
-        <v>570</v>
-      </c>
-      <c r="C78" s="190"/>
-      <c r="D78" s="120" t="s">
-        <v>575</v>
-      </c>
-      <c r="E78" s="183"/>
+        <v>490</v>
+      </c>
+      <c r="B78" s="219" t="s">
+        <v>410</v>
+      </c>
+      <c r="C78" s="175" t="s">
+        <v>507</v>
+      </c>
+      <c r="D78" s="199" t="s">
+        <v>508</v>
+      </c>
+      <c r="E78" s="89"/>
       <c r="F78" s="89"/>
       <c r="G78" s="89"/>
-      <c r="H78" s="89"/>
-    </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1">
       <c r="A79" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B79" s="89" t="s">
-        <v>570</v>
-      </c>
-      <c r="C79" s="200"/>
-      <c r="D79" s="120" t="s">
-        <v>576</v>
-      </c>
-      <c r="E79" s="183"/>
+        <v>490</v>
+      </c>
+      <c r="B79" s="220"/>
+      <c r="C79" s="176"/>
+      <c r="D79" s="205"/>
+      <c r="E79" s="89"/>
       <c r="F79" s="89"/>
       <c r="G79" s="89"/>
-      <c r="H79" s="89"/>
-    </row>
-    <row r="80" spans="1:8" ht="27">
+    </row>
+    <row r="80" spans="1:7" ht="15">
       <c r="A80" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="120" t="s">
-        <v>577</v>
-      </c>
-      <c r="C80" s="129" t="s">
-        <v>413</v>
-      </c>
-      <c r="D80" s="92" t="s">
-        <v>578</v>
-      </c>
-      <c r="E80" s="134" t="s">
-        <v>579</v>
-      </c>
+      <c r="B80" s="220"/>
+      <c r="C80" s="176"/>
+      <c r="D80" s="205"/>
+      <c r="E80" s="89"/>
       <c r="F80" s="89"/>
       <c r="G80" s="89"/>
-      <c r="H80" s="89"/>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1">
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1">
       <c r="A81" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B81" s="120" t="s">
-        <v>580</v>
-      </c>
-      <c r="C81" s="189" t="s">
-        <v>581</v>
-      </c>
-      <c r="D81" s="217" t="s">
-        <v>416</v>
-      </c>
-      <c r="E81" s="182" t="s">
-        <v>317</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="B81" s="220"/>
+      <c r="C81" s="176"/>
+      <c r="D81" s="205"/>
+      <c r="E81" s="89"/>
       <c r="F81" s="89"/>
       <c r="G81" s="89"/>
-      <c r="H81" s="89"/>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1">
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1">
       <c r="A82" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B82" s="120" t="s">
-        <v>580</v>
-      </c>
-      <c r="C82" s="190"/>
-      <c r="D82" s="217" t="s">
-        <v>582</v>
-      </c>
-      <c r="E82" s="183"/>
+        <v>490</v>
+      </c>
+      <c r="B82" s="221"/>
+      <c r="C82" s="176"/>
+      <c r="D82" s="205"/>
+      <c r="E82" s="89"/>
       <c r="F82" s="89"/>
       <c r="G82" s="89"/>
-      <c r="H82" s="89"/>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1">
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1">
       <c r="A83" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B83" s="120" t="s">
-        <v>580</v>
-      </c>
-      <c r="C83" s="190"/>
-      <c r="D83" s="217" t="s">
-        <v>583</v>
-      </c>
-      <c r="E83" s="183"/>
+        <v>490</v>
+      </c>
+      <c r="B83" s="226" t="s">
+        <v>413</v>
+      </c>
+      <c r="C83" s="129" t="s">
+        <v>509</v>
+      </c>
+      <c r="D83" s="236" t="s">
+        <v>510</v>
+      </c>
+      <c r="E83" s="89"/>
       <c r="F83" s="89"/>
       <c r="G83" s="89"/>
-      <c r="H83" s="89"/>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1">
+    </row>
+    <row r="84" spans="1:7" ht="15.75" customHeight="1">
       <c r="A84" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B84" s="120" t="s">
-        <v>580</v>
-      </c>
-      <c r="C84" s="190"/>
-      <c r="D84" s="217" t="s">
-        <v>584</v>
-      </c>
-      <c r="E84" s="183"/>
+        <v>490</v>
+      </c>
+      <c r="B84" s="219" t="s">
+        <v>511</v>
+      </c>
+      <c r="C84" s="237" t="s">
+        <v>416</v>
+      </c>
+      <c r="D84" s="199" t="s">
+        <v>317</v>
+      </c>
+      <c r="E84" s="89"/>
       <c r="F84" s="89"/>
       <c r="G84" s="89"/>
-      <c r="H84" s="89"/>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1">
+    </row>
+    <row r="85" spans="1:7" ht="15.75" customHeight="1">
       <c r="A85" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="B85" s="120" t="s">
-        <v>580</v>
-      </c>
-      <c r="C85" s="200"/>
-      <c r="D85" s="217" t="s">
-        <v>585</v>
-      </c>
-      <c r="E85" s="183"/>
+        <v>490</v>
+      </c>
+      <c r="B85" s="220"/>
+      <c r="C85" s="237" t="s">
+        <v>512</v>
+      </c>
+      <c r="D85" s="205"/>
+      <c r="E85" s="89"/>
       <c r="F85" s="89"/>
       <c r="G85" s="89"/>
-      <c r="H85" s="89"/>
-    </row>
-    <row r="86" spans="1:8" ht="27">
-      <c r="A86" s="89" t="s">
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="119" t="s">
         <v>319</v>
       </c>
-      <c r="B86" s="130" t="s">
-        <v>586</v>
-      </c>
-      <c r="C86" s="191" t="s">
-        <v>419</v>
-      </c>
-      <c r="D86" s="130" t="s">
-        <v>587</v>
-      </c>
-      <c r="E86" s="182" t="s">
-        <v>321</v>
-      </c>
+      <c r="B86" s="220"/>
+      <c r="C86" s="237" t="s">
+        <v>513</v>
+      </c>
+      <c r="D86" s="205"/>
+      <c r="E86" s="89"/>
       <c r="F86" s="89"/>
       <c r="G86" s="89"/>
-      <c r="H86" s="89"/>
-    </row>
-    <row r="87" spans="1:8" ht="40.5">
-      <c r="A87" s="89" t="s">
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="119" t="s">
         <v>319</v>
       </c>
-      <c r="B87" s="130" t="s">
-        <v>586</v>
-      </c>
-      <c r="C87" s="192"/>
-      <c r="D87" s="130" t="s">
-        <v>588</v>
-      </c>
-      <c r="E87" s="184"/>
+      <c r="B87" s="220"/>
+      <c r="C87" s="237" t="s">
+        <v>514</v>
+      </c>
+      <c r="D87" s="205"/>
+      <c r="E87" s="89"/>
       <c r="F87" s="89"/>
       <c r="G87" s="89"/>
-      <c r="H87" s="89"/>
-    </row>
-    <row r="88" spans="1:8" ht="27">
-      <c r="A88" s="89" t="s">
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="119" t="s">
         <v>319</v>
       </c>
-      <c r="B88" s="130" t="s">
-        <v>586</v>
-      </c>
-      <c r="C88" s="131" t="s">
-        <v>422</v>
-      </c>
-      <c r="D88" s="130" t="s">
-        <v>589</v>
-      </c>
-      <c r="E88" s="185"/>
+      <c r="B88" s="220"/>
+      <c r="C88" s="237" t="s">
+        <v>515</v>
+      </c>
+      <c r="D88" s="205"/>
+      <c r="E88" s="89"/>
       <c r="F88" s="89"/>
       <c r="G88" s="89"/>
-      <c r="H88" s="89"/>
-    </row>
-    <row r="89" spans="1:8">
+    </row>
+    <row r="89" spans="1:7" ht="27" customHeight="1">
       <c r="A89" s="89"/>
-      <c r="B89" s="92"/>
-      <c r="C89" s="127"/>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="B89" s="223" t="s">
+        <v>419</v>
+      </c>
+      <c r="C89" s="175" t="s">
+        <v>516</v>
+      </c>
+      <c r="D89" s="175" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="40.5" customHeight="1">
       <c r="A90" s="89"/>
-      <c r="B90" s="92"/>
-      <c r="C90" s="127"/>
+      <c r="B90" s="224"/>
+      <c r="C90" s="177"/>
+      <c r="D90" s="177"/>
+    </row>
+    <row r="91" spans="1:7" ht="27">
+      <c r="B91" s="255" t="s">
+        <v>422</v>
+      </c>
+      <c r="C91" s="129" t="s">
+        <v>517</v>
+      </c>
+      <c r="D91" s="129" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="B92" s="231"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="B93" s="231"/>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="238"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="C50:C59"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="60">
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D52:D62"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="C31:C35"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D22:D24"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="E81:E85"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="E50:E59"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B62"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C52:C62"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="D36:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -10991,17 +10544,17 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="80" t="s">
-        <v>590</v>
+        <v>518</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>591</v>
+        <v>519</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>592</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="183" t="s">
         <v>347</v>
       </c>
       <c r="B2" s="81">
@@ -11012,7 +10565,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="202"/>
+      <c r="A3" s="184"/>
       <c r="B3" s="78">
         <v>177001</v>
       </c>
@@ -11021,7 +10574,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="202"/>
+      <c r="A4" s="184"/>
       <c r="B4" s="78">
         <v>178004</v>
       </c>
@@ -11030,7 +10583,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1">
-      <c r="A5" s="203"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="78">
         <v>177910</v>
       </c>
@@ -11039,7 +10592,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="186" t="s">
         <v>361</v>
       </c>
       <c r="B6" s="81">
@@ -11050,7 +10603,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="205"/>
+      <c r="A7" s="187"/>
       <c r="B7" s="78">
         <v>176861</v>
       </c>
@@ -11059,7 +10612,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="205"/>
+      <c r="A8" s="187"/>
       <c r="B8" s="78">
         <v>176935</v>
       </c>
@@ -11068,7 +10621,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="205"/>
+      <c r="A9" s="187"/>
       <c r="B9" s="78">
         <v>177000</v>
       </c>
@@ -11077,7 +10630,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1">
-      <c r="A10" s="205"/>
+      <c r="A10" s="187"/>
       <c r="B10" s="79">
         <v>177880</v>
       </c>
@@ -11086,7 +10639,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="204" t="s">
+      <c r="A11" s="186" t="s">
         <v>377</v>
       </c>
       <c r="B11" s="81">
@@ -11097,7 +10650,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="205"/>
+      <c r="A12" s="187"/>
       <c r="B12" s="78">
         <v>176941</v>
       </c>
@@ -11106,7 +10659,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="205"/>
+      <c r="A13" s="187"/>
       <c r="B13" s="78">
         <v>177892</v>
       </c>
@@ -11115,7 +10668,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="205"/>
+      <c r="A14" s="187"/>
       <c r="B14" s="78">
         <v>177911</v>
       </c>
@@ -11124,7 +10677,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1">
-      <c r="A15" s="205"/>
+      <c r="A15" s="187"/>
       <c r="B15" s="79">
         <v>177866</v>
       </c>
@@ -11133,7 +10686,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="204" t="s">
+      <c r="A16" s="186" t="s">
         <v>392</v>
       </c>
       <c r="B16" s="81">
@@ -11144,7 +10697,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="205"/>
+      <c r="A17" s="187"/>
       <c r="B17" s="78">
         <v>176898</v>
       </c>
@@ -11153,7 +10706,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="205"/>
+      <c r="A18" s="187"/>
       <c r="B18" s="78">
         <v>177886</v>
       </c>
@@ -11162,7 +10715,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="205"/>
+      <c r="A19" s="187"/>
       <c r="B19" s="78">
         <v>176904</v>
       </c>
@@ -11171,7 +10724,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1">
-      <c r="A20" s="205"/>
+      <c r="A20" s="187"/>
       <c r="B20" s="79">
         <v>177900</v>
       </c>
@@ -11180,8 +10733,8 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="204" t="s">
-        <v>593</v>
+      <c r="A21" s="186" t="s">
+        <v>521</v>
       </c>
       <c r="B21" s="81">
         <v>177869</v>
@@ -11191,7 +10744,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="205"/>
+      <c r="A22" s="187"/>
       <c r="B22" s="78">
         <v>177893</v>
       </c>
@@ -11200,7 +10753,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="205"/>
+      <c r="A23" s="187"/>
       <c r="B23" s="78">
         <v>177867</v>
       </c>
@@ -11209,7 +10762,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1">
-      <c r="A24" s="206"/>
+      <c r="A24" s="188"/>
       <c r="B24" s="78">
         <v>176942</v>
       </c>

--- a/PS stream.xlsx
+++ b/PS stream.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://publicisgroupe-my.sharepoint.com/personal/srimr_publicisgroupe_net/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77FC8F8A-EDE2-4FCD-BC0F-D9826FD29A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{569152B5-C368-475E-AA5E-CFD57E198EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guideline" sheetId="3" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <author>tc={528D454B-CF70-4EC8-BA92-4A70CD4E52C8}</author>
   </authors>
   <commentList>
-    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{E9C77810-A7D1-4537-A749-464CCFA53999}">
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{E9C77810-A7D1-4537-A749-464CCFA53999}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -80,7 +80,7 @@
     </t>
       </text>
     </comment>
-    <comment ref="C66" authorId="1" shapeId="0" xr:uid="{528D454B-CF70-4EC8-BA92-4A70CD4E52C8}">
+    <comment ref="B66" authorId="1" shapeId="0" xr:uid="{528D454B-CF70-4EC8-BA92-4A70CD4E52C8}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="519">
   <si>
     <t>The simple problem statements could be deceptive and the tip of an iceberg, as each of the features in the problem statements can be elaborated to cover a lot of depth.</t>
   </si>
@@ -2510,7 +2510,7 @@
     <t>T72</t>
   </si>
   <si>
-    <t>Module</t>
+    <t>Sprint 0</t>
   </si>
   <si>
     <t>Priority</t>
@@ -2536,9 +2536,6 @@
 g) Creation of all the tables</t>
   </si>
   <si>
-    <t>CI Branching</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create Branches for all the Services Identified. One Branch per Service
 Create repository for all microservice </t>
   </si>
@@ -2604,9 +2601,6 @@
     <t>Architecture Design Front End</t>
   </si>
   <si>
-    <t xml:space="preserve">Devops	</t>
-  </si>
-  <si>
     <t>Docker File for Back End</t>
   </si>
   <si>
@@ -2615,9 +2609,6 @@
 2) The library and proper staging should be added
 3) This docker file to be added in the micro service template
 </t>
-  </si>
-  <si>
-    <t> Template</t>
   </si>
   <si>
     <t>1) Footer
@@ -4582,162 +4573,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4758,57 +4593,12 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4816,52 +4606,16 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="42" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4870,50 +4624,257 @@
     <xf numFmtId="0" fontId="44" fillId="43" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="41" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4925,11 +4886,51 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5236,22 +5237,22 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C52" dT="2022-07-27T03:33:41.77" personId="{755D9237-D4A3-408F-8C0D-B419CFBEB525}" id="{E9C77810-A7D1-4537-A749-464CCFA53999}">
+  <threadedComment ref="B52" dT="2022-07-27T03:33:41.77" personId="{755D9237-D4A3-408F-8C0D-B419CFBEB525}" id="{E9C77810-A7D1-4537-A749-464CCFA53999}">
     <text>do we need kafka setup for this product?</text>
   </threadedComment>
-  <threadedComment ref="C52" dT="2022-07-27T06:20:08.05" personId="{3AB8DBFE-0801-480B-A873-313C2FEABD31}" id="{3EEE5CC2-CDA6-4E16-9385-289B61C5E78A}" parentId="{E9C77810-A7D1-4537-A749-464CCFA53999}">
+  <threadedComment ref="B52" dT="2022-07-27T06:20:08.05" personId="{3AB8DBFE-0801-480B-A873-313C2FEABD31}" id="{3EEE5CC2-CDA6-4E16-9385-289B61C5E78A}" parentId="{E9C77810-A7D1-4537-A749-464CCFA53999}">
     <text xml:space="preserve">yes
 </text>
   </threadedComment>
-  <threadedComment ref="C52" dT="2022-07-27T06:20:43.98" personId="{3AB8DBFE-0801-480B-A873-313C2FEABD31}" id="{BCF1B653-6C1D-461C-AB57-07F076A7E329}" parentId="{E9C77810-A7D1-4537-A749-464CCFA53999}">
+  <threadedComment ref="B52" dT="2022-07-27T06:20:43.98" personId="{3AB8DBFE-0801-480B-A873-313C2FEABD31}" id="{BCF1B653-6C1D-461C-AB57-07F076A7E329}" parentId="{E9C77810-A7D1-4537-A749-464CCFA53999}">
     <text xml:space="preserve">API to API event streaming
 </text>
   </threadedComment>
-  <threadedComment ref="C63" dT="2022-07-27T03:33:09.08" personId="{755D9237-D4A3-408F-8C0D-B419CFBEB525}" id="{528D454B-CF70-4EC8-BA92-4A70CD4E52C8}">
+  <threadedComment ref="B63" dT="2022-07-27T03:33:09.08" personId="{755D9237-D4A3-408F-8C0D-B419CFBEB525}" id="{528D454B-CF70-4EC8-BA92-4A70CD4E52C8}">
     <text xml:space="preserve">where are we using GraphQL?
 </text>
   </threadedComment>
-  <threadedComment ref="C63" dT="2022-07-27T06:19:48.75" personId="{3AB8DBFE-0801-480B-A873-313C2FEABD31}" id="{A48C72DA-BBC6-468F-B5CC-F8837D5C194E}" parentId="{528D454B-CF70-4EC8-BA92-4A70CD4E52C8}">
+  <threadedComment ref="B63" dT="2022-07-27T06:19:48.75" personId="{3AB8DBFE-0801-480B-A873-313C2FEABD31}" id="{A48C72DA-BBC6-468F-B5CC-F8837D5C194E}" parentId="{528D454B-CF70-4EC8-BA92-4A70CD4E52C8}">
     <text xml:space="preserve">API Response in ms
 </text>
   </threadedComment>
@@ -5310,26 +5311,26 @@
       <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="F9" s="140" t="s">
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="F9" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="141"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
+      <c r="A10" s="166"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1">
       <c r="A11" s="23" t="s">
@@ -5337,25 +5338,25 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="23.45">
-      <c r="A12" s="148"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149" t="s">
+      <c r="A12" s="173"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="152" t="s">
+      <c r="D12" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="144" t="s">
+      <c r="F12" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
     </row>
     <row r="13" spans="1:8" ht="18.95" thickBot="1">
-      <c r="A13" s="150"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="153"/>
+      <c r="A13" s="175"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="178"/>
       <c r="F13" s="34"/>
       <c r="G13" s="35" t="s">
         <v>10</v>
@@ -5386,7 +5387,7 @@
       <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:8" ht="28.5" thickBot="1">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="170" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -5409,7 +5410,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="42.6" thickBot="1">
-      <c r="A16" s="147"/>
+      <c r="A16" s="172"/>
       <c r="B16" s="30" t="s">
         <v>25</v>
       </c>
@@ -5428,7 +5429,7 @@
       <c r="H16" s="33"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1">
-      <c r="A17" s="145" t="s">
+      <c r="A17" s="170" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="29" t="s">
@@ -5449,7 +5450,7 @@
       <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8" ht="28.5" thickBot="1">
-      <c r="A18" s="146"/>
+      <c r="A18" s="171"/>
       <c r="B18" s="30" t="s">
         <v>36</v>
       </c>
@@ -5468,7 +5469,7 @@
       <c r="H18" s="33"/>
     </row>
     <row r="19" spans="1:8" ht="70.5" thickBot="1">
-      <c r="A19" s="147"/>
+      <c r="A19" s="172"/>
       <c r="B19" s="29" t="s">
         <v>41</v>
       </c>
@@ -5487,7 +5488,7 @@
       <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8" ht="28.5" thickBot="1">
-      <c r="A20" s="145" t="s">
+      <c r="A20" s="170" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -5506,7 +5507,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1">
-      <c r="A21" s="146"/>
+      <c r="A21" s="171"/>
       <c r="B21" s="29" t="s">
         <v>51</v>
       </c>
@@ -5523,7 +5524,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1">
-      <c r="A22" s="146"/>
+      <c r="A22" s="171"/>
       <c r="B22" s="30" t="s">
         <v>54</v>
       </c>
@@ -5538,7 +5539,7 @@
       <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1">
-      <c r="A23" s="147"/>
+      <c r="A23" s="172"/>
       <c r="B23" s="29" t="s">
         <v>57</v>
       </c>
@@ -5570,7 +5571,7 @@
       <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1">
-      <c r="A25" s="145" t="s">
+      <c r="A25" s="170" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="29" t="s">
@@ -5587,7 +5588,7 @@
       <c r="H25" s="33"/>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1">
-      <c r="A26" s="146"/>
+      <c r="A26" s="171"/>
       <c r="B26" s="30" t="s">
         <v>66</v>
       </c>
@@ -5602,7 +5603,7 @@
       <c r="H26" s="33"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1">
-      <c r="A27" s="146"/>
+      <c r="A27" s="171"/>
       <c r="B27" s="29" t="s">
         <v>69</v>
       </c>
@@ -5619,7 +5620,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1">
-      <c r="A28" s="147"/>
+      <c r="A28" s="172"/>
       <c r="B28" s="30" t="s">
         <v>73</v>
       </c>
@@ -5634,7 +5635,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="170" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="29" t="s">
@@ -5651,7 +5652,7 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1">
-      <c r="A30" s="146"/>
+      <c r="A30" s="171"/>
       <c r="B30" s="30" t="s">
         <v>80</v>
       </c>
@@ -5668,7 +5669,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1">
-      <c r="A31" s="146"/>
+      <c r="A31" s="171"/>
       <c r="B31" s="29" t="s">
         <v>84</v>
       </c>
@@ -5677,13 +5678,13 @@
       <c r="F31" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="154" t="s">
+      <c r="G31" s="179" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="155"/>
+      <c r="H31" s="180"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1">
-      <c r="A32" s="147"/>
+      <c r="A32" s="172"/>
       <c r="B32" s="30" t="s">
         <v>87</v>
       </c>
@@ -5692,19 +5693,19 @@
       <c r="F32" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="154" t="s">
+      <c r="G32" s="179" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="155"/>
+      <c r="H32" s="180"/>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="142" t="s">
+      <c r="G33" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="143"/>
+      <c r="H33" s="168"/>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" s="31" t="s">
@@ -5984,14 +5985,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="43.7" customHeight="1">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
     </row>
     <row r="4" spans="1:6" ht="28.5">
       <c r="A4" s="2" t="s">
@@ -6014,7 +6015,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.700000000000003" customHeight="1">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="184" t="s">
         <v>147</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6028,7 +6029,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="159"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
         <v>150</v>
@@ -6038,7 +6039,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="159"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>151</v>
@@ -6048,7 +6049,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="159"/>
+      <c r="A8" s="184"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
         <v>152</v>
@@ -6058,7 +6059,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="159"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
         <v>153</v>
@@ -6068,7 +6069,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="159"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="3" t="s">
         <v>154</v>
       </c>
@@ -6080,7 +6081,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="159"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
         <v>156</v>
@@ -6090,7 +6091,7 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="159"/>
+      <c r="A12" s="184"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
         <v>157</v>
@@ -6100,7 +6101,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="159"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="3" t="s">
         <v>154</v>
       </c>
@@ -6126,7 +6127,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" s="41" customFormat="1" ht="57.95">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="185" t="s">
         <v>162</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -6142,7 +6143,7 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="72.599999999999994">
-      <c r="A16" s="160"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="6" t="s">
         <v>166</v>
       </c>
@@ -6156,7 +6157,7 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="43.5">
-      <c r="A17" s="160"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="6" t="s">
         <v>169</v>
       </c>
@@ -6170,7 +6171,7 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="57.95">
-      <c r="A18" s="160"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="6" t="s">
         <v>172</v>
       </c>
@@ -6184,7 +6185,7 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="116.1">
-      <c r="A19" s="160"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="6" t="s">
         <v>175</v>
       </c>
@@ -6198,7 +6199,7 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="29.1">
-      <c r="A20" s="160"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
         <v>178</v>
@@ -6210,7 +6211,7 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="72.599999999999994">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="186" t="s">
         <v>180</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -6226,7 +6227,7 @@
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="72.599999999999994">
-      <c r="A22" s="161"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="11" t="s">
         <v>183</v>
       </c>
@@ -6240,7 +6241,7 @@
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" ht="57.95">
-      <c r="A23" s="161"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="11" t="s">
         <v>185</v>
       </c>
@@ -6254,7 +6255,7 @@
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" ht="87">
-      <c r="A24" s="161"/>
+      <c r="A24" s="186"/>
       <c r="B24" s="11" t="s">
         <v>187</v>
       </c>
@@ -6268,7 +6269,7 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="29.1">
-      <c r="A25" s="162" t="s">
+      <c r="A25" s="187" t="s">
         <v>189</v>
       </c>
       <c r="B25" s="38" t="s">
@@ -6284,7 +6285,7 @@
       <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" ht="101.45">
-      <c r="A26" s="162"/>
+      <c r="A26" s="187"/>
       <c r="B26" s="38" t="s">
         <v>193</v>
       </c>
@@ -6298,7 +6299,7 @@
       <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" ht="43.5">
-      <c r="A27" s="162"/>
+      <c r="A27" s="187"/>
       <c r="B27" s="38" t="s">
         <v>196</v>
       </c>
@@ -6312,7 +6313,7 @@
       <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="181" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -6328,7 +6329,7 @@
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="156"/>
+      <c r="A29" s="181"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
         <v>203</v>
@@ -6340,7 +6341,7 @@
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="43.5">
-      <c r="A30" s="156"/>
+      <c r="A30" s="181"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13" t="s">
         <v>205</v>
@@ -6352,7 +6353,7 @@
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" ht="72.599999999999994">
-      <c r="A31" s="156"/>
+      <c r="A31" s="181"/>
       <c r="B31" s="16" t="s">
         <v>207</v>
       </c>
@@ -6366,7 +6367,7 @@
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" ht="43.5">
-      <c r="A32" s="156"/>
+      <c r="A32" s="181"/>
       <c r="B32" s="12"/>
       <c r="C32" s="13" t="s">
         <v>210</v>
@@ -6420,7 +6421,7 @@
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" s="41" customFormat="1">
-      <c r="A36" s="157" t="s">
+      <c r="A36" s="182" t="s">
         <v>220</v>
       </c>
       <c r="B36" s="38" t="s">
@@ -6436,7 +6437,7 @@
       <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6" ht="43.5">
-      <c r="A37" s="157"/>
+      <c r="A37" s="182"/>
       <c r="B37" s="40" t="s">
         <v>224</v>
       </c>
@@ -6637,20 +6638,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="189" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
+      <c r="A2" s="189"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
     </row>
     <row r="3" spans="1:5" ht="21">
       <c r="A3" s="54" t="s">
@@ -6670,7 +6671,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="139.5" customHeight="1">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="191" t="s">
         <v>244</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -6687,7 +6688,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="108.6" customHeight="1">
-      <c r="A5" s="190"/>
+      <c r="A5" s="192"/>
       <c r="B5" s="53" t="s">
         <v>249</v>
       </c>
@@ -6702,7 +6703,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="77.45" customHeight="1">
-      <c r="A6" s="190"/>
+      <c r="A6" s="192"/>
       <c r="B6" s="53" t="s">
         <v>253</v>
       </c>
@@ -6715,7 +6716,7 @@
       <c r="E6" s="53"/>
     </row>
     <row r="7" spans="1:5" ht="186" customHeight="1">
-      <c r="A7" s="190"/>
+      <c r="A7" s="192"/>
       <c r="B7" s="53" t="s">
         <v>256</v>
       </c>
@@ -6730,7 +6731,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="108.6" customHeight="1">
-      <c r="A8" s="190"/>
+      <c r="A8" s="192"/>
       <c r="B8" s="53" t="s">
         <v>260</v>
       </c>
@@ -6745,7 +6746,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="108.6" customHeight="1">
-      <c r="A9" s="191"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="53" t="s">
         <v>256</v>
       </c>
@@ -6798,18 +6799,18 @@
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
     </row>
-    <row r="13" spans="1:5" s="209" customFormat="1" ht="139.5">
-      <c r="A13" s="207"/>
-      <c r="B13" s="208" t="s">
+    <row r="13" spans="1:5" s="149" customFormat="1" ht="139.5">
+      <c r="A13" s="147"/>
+      <c r="B13" s="148" t="s">
         <v>256</v>
       </c>
-      <c r="C13" s="208" t="s">
+      <c r="C13" s="148" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="208" t="s">
+      <c r="D13" s="148" t="s">
         <v>275</v>
       </c>
-      <c r="E13" s="208" t="s">
+      <c r="E13" s="148" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7026,13 +7027,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.600000000000001">
-      <c r="A28" s="163" t="s">
+      <c r="A28" s="188" t="s">
         <v>323</v>
       </c>
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
+      <c r="B28" s="188"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188"/>
     </row>
     <row r="29" spans="1:5" ht="48.75">
       <c r="A29" s="67" t="s">
@@ -7129,8 +7130,8 @@
   <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -7174,7 +7175,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="197" t="s">
         <v>347</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -7194,11 +7195,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="27">
-      <c r="A4" s="167"/>
+      <c r="A4" s="198"/>
       <c r="B4" s="89" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="140" t="s">
         <v>353</v>
       </c>
       <c r="D4" s="94" t="s">
@@ -7212,7 +7213,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="167"/>
+      <c r="A5" s="198"/>
       <c r="B5" s="89" t="s">
         <v>355</v>
       </c>
@@ -7230,7 +7231,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1">
-      <c r="A6" s="167"/>
+      <c r="A6" s="198"/>
       <c r="B6" s="114" t="s">
         <v>358</v>
       </c>
@@ -7248,13 +7249,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="27">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="197" t="s">
         <v>361</v>
       </c>
       <c r="B7" s="110" t="s">
         <v>362</v>
       </c>
-      <c r="C7" s="193" t="s">
+      <c r="C7" s="141" t="s">
         <v>363</v>
       </c>
       <c r="D7" s="122" t="s">
@@ -7269,11 +7270,11 @@
       <c r="H7" s="112"/>
     </row>
     <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="167"/>
+      <c r="A8" s="198"/>
       <c r="B8" s="104" t="s">
         <v>365</v>
       </c>
-      <c r="C8" s="194" t="s">
+      <c r="C8" s="142" t="s">
         <v>366</v>
       </c>
       <c r="D8" s="123" t="s">
@@ -7287,7 +7288,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="167"/>
+      <c r="A9" s="198"/>
       <c r="B9" s="104" t="s">
         <v>368</v>
       </c>
@@ -7305,11 +7306,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="167"/>
+      <c r="A10" s="198"/>
       <c r="B10" s="104" t="s">
         <v>371</v>
       </c>
-      <c r="C10" s="194" t="s">
+      <c r="C10" s="142" t="s">
         <v>372</v>
       </c>
       <c r="D10" s="123" t="s">
@@ -7323,11 +7324,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="27">
-      <c r="A11" s="168"/>
+      <c r="A11" s="199"/>
       <c r="B11" s="111" t="s">
         <v>374</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="143" t="s">
         <v>375</v>
       </c>
       <c r="D11" s="124" t="s">
@@ -7341,7 +7342,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="200" t="s">
         <v>377</v>
       </c>
       <c r="B12" s="88" t="s">
@@ -7361,7 +7362,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="169"/>
+      <c r="A13" s="200"/>
       <c r="B13" s="88" t="s">
         <v>381</v>
       </c>
@@ -7379,7 +7380,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="27">
-      <c r="A14" s="169"/>
+      <c r="A14" s="200"/>
       <c r="B14" s="88" t="s">
         <v>384</v>
       </c>
@@ -7397,7 +7398,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="169"/>
+      <c r="A15" s="200"/>
       <c r="B15" s="88" t="s">
         <v>386</v>
       </c>
@@ -7415,7 +7416,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1">
-      <c r="A16" s="170"/>
+      <c r="A16" s="201"/>
       <c r="B16" s="108" t="s">
         <v>389</v>
       </c>
@@ -7433,7 +7434,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="202" t="s">
         <v>392</v>
       </c>
       <c r="B17" s="106" t="s">
@@ -7453,14 +7454,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="27">
-      <c r="A18" s="169"/>
+      <c r="A18" s="200"/>
       <c r="B18" s="88" t="s">
         <v>396</v>
       </c>
-      <c r="C18" s="196" t="s">
+      <c r="C18" s="144" t="s">
         <v>397</v>
       </c>
-      <c r="D18" s="197" t="s">
+      <c r="D18" s="145" t="s">
         <v>398</v>
       </c>
       <c r="E18" s="133" t="s">
@@ -7471,7 +7472,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="169"/>
+      <c r="A19" s="200"/>
       <c r="B19" s="88" t="s">
         <v>399</v>
       </c>
@@ -7489,7 +7490,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="27">
-      <c r="A20" s="169"/>
+      <c r="A20" s="200"/>
       <c r="B20" s="88" t="s">
         <v>402</v>
       </c>
@@ -7507,7 +7508,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="27">
-      <c r="A21" s="169"/>
+      <c r="A21" s="200"/>
       <c r="B21" s="135" t="s">
         <v>405</v>
       </c>
@@ -7525,13 +7526,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="27">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="194" t="s">
         <v>408</v>
       </c>
       <c r="B22" s="107" t="s">
         <v>409</v>
       </c>
-      <c r="C22" s="198" t="s">
+      <c r="C22" s="146" t="s">
         <v>410</v>
       </c>
       <c r="D22" s="107" t="s">
@@ -7545,7 +7546,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="173"/>
+      <c r="A23" s="195"/>
       <c r="B23" s="89" t="s">
         <v>412</v>
       </c>
@@ -7563,7 +7564,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="173" t="s">
+      <c r="A24" s="195" t="s">
         <v>408</v>
       </c>
       <c r="B24" s="89" t="s">
@@ -7583,7 +7584,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="173"/>
+      <c r="A25" s="195"/>
       <c r="B25" s="89" t="s">
         <v>418</v>
       </c>
@@ -7601,7 +7602,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1">
-      <c r="A26" s="174"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="109" t="s">
         <v>421</v>
       </c>
@@ -8865,1660 +8866,1397 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4186645-639B-4438-8165-ADA46301107B}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50:D51"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" sqref="A1:F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="232" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="53.140625" customWidth="1"/>
-    <col min="5" max="5" width="48.140625" customWidth="1"/>
-    <col min="6" max="6" width="55.7109375" customWidth="1"/>
-    <col min="7" max="7" width="61.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="156" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="262"/>
+    <row r="1" spans="1:6" ht="21">
+      <c r="A1" s="262" t="s">
+        <v>472</v>
+      </c>
       <c r="B1" s="262"/>
       <c r="C1" s="262"/>
       <c r="D1" s="262"/>
       <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="263"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="91" t="s">
-        <v>472</v>
-      </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="127" t="s">
+      <c r="F1" s="263"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="153"/>
+      <c r="B2" s="127" t="s">
         <v>144</v>
       </c>
+      <c r="C2" s="91" t="s">
+        <v>243</v>
+      </c>
       <c r="D2" s="91" t="s">
-        <v>243</v>
+        <v>473</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F2" s="91" t="s">
-        <v>474</v>
-      </c>
-      <c r="G2" s="91" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A3" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="219" t="s">
+    <row r="3" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A3" s="232" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="211" t="s">
         <v>475</v>
       </c>
-      <c r="D3" s="199" t="s">
+      <c r="C3" s="236" t="s">
         <v>476</v>
       </c>
+      <c r="D3" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="E3" s="89" t="s">
         <v>351</v>
       </c>
       <c r="F3" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="G3" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A4" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="89"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A4" s="221"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F4" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="G4" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="26.45" customHeight="1">
-      <c r="A5" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="200"/>
+    </row>
+    <row r="5" spans="1:6" ht="26.45" customHeight="1">
+      <c r="A5" s="221"/>
+      <c r="B5" s="212"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="E5" s="89" t="s">
         <v>351</v>
       </c>
       <c r="F5" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="G5" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A6" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="B6" s="220"/>
-      <c r="C6" s="247"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="114" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A6" s="221"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="114" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="89" t="s">
         <v>351</v>
       </c>
       <c r="F6" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="G6" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="B7" s="221"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="239" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="222"/>
+      <c r="B7" s="213"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="160" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="89" t="s">
         <v>351</v>
       </c>
       <c r="F7" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="G7" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" customHeight="1">
-      <c r="A8" s="89" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="27" customHeight="1">
+      <c r="A8" s="232" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="214" t="s">
         <v>477</v>
       </c>
-      <c r="B8" s="219" t="s">
-        <v>353</v>
-      </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="251" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="222"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="252"/>
+      <c r="D9" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="78" customHeight="1">
+      <c r="A10" s="232" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" s="216" t="s">
         <v>478</v>
       </c>
-      <c r="D8" s="201" t="s">
-        <v>251</v>
-      </c>
-      <c r="E8" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F8" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G8" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="89" t="s">
-        <v>477</v>
-      </c>
-      <c r="B9" s="221"/>
-      <c r="C9" s="245"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F9" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G9" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="78" customHeight="1">
-      <c r="A10" s="89" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" s="219" t="s">
-        <v>356</v>
-      </c>
-      <c r="C10" s="243" t="s">
+      <c r="C10" s="236" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A11" s="221"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="249"/>
+      <c r="D11" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A12" s="221"/>
+      <c r="B12" s="216"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="A13" s="222"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27" customHeight="1">
+      <c r="A14" s="232" t="s">
         <v>479</v>
       </c>
-      <c r="D10" s="199" t="s">
-        <v>255</v>
-      </c>
-      <c r="E10" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F10" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G10" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A11" s="89" t="s">
-        <v>253</v>
-      </c>
-      <c r="B11" s="220"/>
-      <c r="C11" s="243"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F11" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G11" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A12" s="89" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" s="220"/>
-      <c r="C12" s="243"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F12" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G12" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="89" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" s="221"/>
-      <c r="C13" s="244"/>
-      <c r="D13" s="200"/>
-      <c r="E13" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F13" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G13" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="27" customHeight="1">
-      <c r="A14" s="89" t="s">
-        <v>256</v>
-      </c>
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>480</v>
       </c>
-      <c r="C14" s="180" t="s">
+      <c r="C14" s="207" t="s">
         <v>481</v>
       </c>
-      <c r="D14" s="203" t="s">
+      <c r="D14" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="A15" s="221"/>
+      <c r="B15" s="218"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1">
+      <c r="A16" s="221"/>
+      <c r="B16" s="218"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F16" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
+      <c r="A17" s="222"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
+      <c r="A18" s="232" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18" s="218" t="s">
         <v>482</v>
       </c>
-      <c r="E14" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F14" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G14" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
-      <c r="A15" s="89" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="220"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F15" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G15" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
-      <c r="A16" s="89" t="s">
-        <v>256</v>
-      </c>
-      <c r="B16" s="220"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F16" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G16" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
-      <c r="A17" s="89" t="s">
-        <v>256</v>
-      </c>
-      <c r="B17" s="221"/>
-      <c r="C17" s="242"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F17" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G17" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
-      <c r="A18" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="219" t="s">
-        <v>363</v>
-      </c>
-      <c r="C18" s="180" t="s">
+      <c r="C18" s="207" t="s">
         <v>483</v>
       </c>
-      <c r="D18" s="203" t="s">
+      <c r="D18" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F18" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1">
+      <c r="A19" s="221"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="221"/>
+      <c r="B20" s="218"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="221"/>
+      <c r="B21" s="218"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F21" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="51.95" customHeight="1">
+      <c r="A22" s="241" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" s="211" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="207" t="s">
         <v>484</v>
       </c>
-      <c r="E18" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F18" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G18" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
-      <c r="A19" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="220"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F19" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G19" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15">
-      <c r="A20" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="220"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F20" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G20" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15">
-      <c r="A21" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="220"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F21" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G21" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="51.95" customHeight="1">
-      <c r="A22" s="119" t="s">
-        <v>256</v>
-      </c>
-      <c r="B22" s="212" t="s">
-        <v>366</v>
-      </c>
-      <c r="C22" s="246" t="s">
-        <v>265</v>
-      </c>
-      <c r="D22" s="203" t="s">
+      <c r="D22" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E22" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A23" s="242"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F23" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="26.45" customHeight="1">
+      <c r="A24" s="242"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E24" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1">
+      <c r="A25" s="243"/>
+      <c r="B25" s="213"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E25" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1">
+      <c r="A26" s="241" t="s">
         <v>485</v>
       </c>
-      <c r="E22" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F22" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G22" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="26.1" customHeight="1">
-      <c r="A23" s="119" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" s="213"/>
-      <c r="C23" s="247"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F23" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G23" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="26.45" customHeight="1">
-      <c r="A24" s="119" t="s">
-        <v>256</v>
-      </c>
-      <c r="B24" s="213"/>
-      <c r="C24" s="247"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F24" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G24" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1">
-      <c r="A25" s="119" t="s">
-        <v>249</v>
-      </c>
-      <c r="B25" s="214"/>
-      <c r="C25" s="248"/>
-      <c r="D25" s="249"/>
-      <c r="E25" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F25" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G25" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
-      <c r="A26" s="89" t="s">
-        <v>249</v>
-      </c>
-      <c r="B26" s="212" t="s">
+      <c r="B26" s="220" t="s">
         <v>486</v>
       </c>
-      <c r="C26" s="179" t="s">
+      <c r="C26" s="207" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E26" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1">
+      <c r="A27" s="242"/>
+      <c r="B27" s="218"/>
+      <c r="C27" s="208"/>
+      <c r="D27" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E27" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F27" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1">
+      <c r="A28" s="242"/>
+      <c r="B28" s="218"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E28" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F28" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1">
+      <c r="A29" s="242"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="208"/>
+      <c r="D29" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E29" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1">
+      <c r="A30" s="243"/>
+      <c r="B30" s="219"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E30" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F30" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1">
+      <c r="A31" s="226" t="s">
         <v>487</v>
       </c>
-      <c r="D26" s="203" t="s">
-        <v>269</v>
-      </c>
-      <c r="E26" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F26" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G26" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
-      <c r="A27" s="89" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="213"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F27" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G27" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1">
-      <c r="A28" s="89" t="s">
-        <v>256</v>
-      </c>
-      <c r="B28" s="213"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F28" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G28" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1">
-      <c r="A29" s="89" t="s">
-        <v>256</v>
-      </c>
-      <c r="B29" s="213"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F29" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G29" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
-      <c r="A30" s="89" t="s">
-        <v>256</v>
-      </c>
-      <c r="B30" s="214"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="241"/>
-      <c r="E30" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F30" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G30" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
-      <c r="A31" s="89" t="s">
-        <v>256</v>
-      </c>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="203" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="236" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E31" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F31" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1">
+      <c r="A32" s="227"/>
+      <c r="B32" s="210"/>
+      <c r="C32" s="237"/>
+      <c r="D32" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E32" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F32" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1">
+      <c r="A33" s="227"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="237"/>
+      <c r="D33" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E33" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F33" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="A34" s="227"/>
+      <c r="B34" s="210"/>
+      <c r="C34" s="237"/>
+      <c r="D34" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E34" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F34" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1">
+      <c r="A35" s="244"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="238"/>
+      <c r="D35" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E35" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F35" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1">
+      <c r="A36" s="232" t="s">
         <v>488</v>
       </c>
-      <c r="C31" s="175" t="s">
-        <v>272</v>
-      </c>
-      <c r="D31" s="199" t="s">
-        <v>272</v>
-      </c>
-      <c r="E31" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F31" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G31" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1">
-      <c r="A32" s="89" t="s">
-        <v>256</v>
-      </c>
-      <c r="B32" s="224"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="205"/>
-      <c r="E32" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F32" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G32" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1">
-      <c r="A33" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="B33" s="224"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="205"/>
-      <c r="E33" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F33" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G33" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
-      <c r="A34" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="B34" s="224"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="205"/>
-      <c r="E34" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F34" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G34" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
-      <c r="A35" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="B35" s="225"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F35" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G35" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
-      <c r="A36" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="B36" s="219" t="s">
+      <c r="B36" s="203" t="s">
+        <v>280</v>
+      </c>
+      <c r="C36" s="236" t="s">
+        <v>280</v>
+      </c>
+      <c r="D36" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E36" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F36" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1">
+      <c r="A37" s="221"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="237"/>
+      <c r="D37" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E37" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F37" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1">
+      <c r="A38" s="221"/>
+      <c r="B38" s="210"/>
+      <c r="C38" s="237"/>
+      <c r="D38" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E38" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F38" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1">
+      <c r="A39" s="221"/>
+      <c r="B39" s="210"/>
+      <c r="C39" s="237"/>
+      <c r="D39" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E39" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F39" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1">
+      <c r="A40" s="221"/>
+      <c r="B40" s="210"/>
+      <c r="C40" s="237"/>
+      <c r="D40" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E40" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F40" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15">
+      <c r="A41" s="222"/>
+      <c r="B41" s="205"/>
+      <c r="C41" s="237"/>
+      <c r="D41" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E41" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F41" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="27" customHeight="1">
+      <c r="A42" s="232" t="s">
         <v>489</v>
       </c>
-      <c r="C36" s="175" t="s">
-        <v>280</v>
-      </c>
-      <c r="D36" s="199" t="s">
-        <v>280</v>
-      </c>
-      <c r="E36" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F36" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G36" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
-      <c r="A37" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="B37" s="220"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="205"/>
-      <c r="E37" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F37" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G37" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
-      <c r="A38" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="B38" s="220"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="205"/>
-      <c r="E38" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F38" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G38" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
-      <c r="A39" s="89" t="s">
+      <c r="B42" s="245" t="s">
         <v>490</v>
       </c>
-      <c r="B39" s="220"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="205"/>
-      <c r="E39" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F39" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G39" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
-      <c r="A40" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B40" s="220"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F40" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G40" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15">
-      <c r="A41" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="221"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F41" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G41" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="27" customHeight="1">
-      <c r="A42" s="89" t="s">
-        <v>256</v>
-      </c>
-      <c r="B42" s="219" t="s">
+      <c r="C42" s="236" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E42" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F42" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="26.1" customHeight="1">
+      <c r="A43" s="222"/>
+      <c r="B43" s="246"/>
+      <c r="C43" s="238"/>
+      <c r="D43" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E43" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F43" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1">
+      <c r="A44" s="152" t="s">
+        <v>382</v>
+      </c>
+      <c r="B44" s="162" t="s">
+        <v>287</v>
+      </c>
+      <c r="C44" s="150" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E44" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F44" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1">
+      <c r="A45" s="154" t="s">
+        <v>288</v>
+      </c>
+      <c r="B45" s="163" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" s="151" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E45" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F45" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1">
+      <c r="A46" s="232" t="s">
+        <v>387</v>
+      </c>
+      <c r="B46" s="203" t="s">
         <v>491</v>
       </c>
-      <c r="C42" s="250" t="s">
+      <c r="C46" s="236" t="s">
         <v>492</v>
       </c>
-      <c r="D42" s="199" t="s">
-        <v>284</v>
-      </c>
-      <c r="E42" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F42" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G42" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="26.1" customHeight="1">
-      <c r="A43" s="89" t="s">
+      <c r="D46" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E46" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F46" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="26.45" customHeight="1">
+      <c r="A47" s="221"/>
+      <c r="B47" s="210"/>
+      <c r="C47" s="237"/>
+      <c r="D47" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E47" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F47" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15">
+      <c r="A48" s="221"/>
+      <c r="B48" s="210"/>
+      <c r="C48" s="237"/>
+      <c r="D48" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E48" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F48" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1">
+      <c r="A49" s="222"/>
+      <c r="B49" s="210"/>
+      <c r="C49" s="237"/>
+      <c r="D49" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E49" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F49" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1">
+      <c r="A50" s="228" t="s">
         <v>493</v>
       </c>
-      <c r="B43" s="221"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="206"/>
-      <c r="E43" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F43" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G43" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1">
-      <c r="A44" s="89" t="s">
-        <v>493</v>
-      </c>
-      <c r="B44" s="226" t="s">
-        <v>382</v>
-      </c>
-      <c r="C44" s="251" t="s">
-        <v>287</v>
-      </c>
-      <c r="D44" s="217" t="s">
-        <v>287</v>
-      </c>
-      <c r="E44" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F44" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G44" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1">
-      <c r="A45" s="89" t="s">
-        <v>493</v>
-      </c>
-      <c r="B45" s="227" t="s">
-        <v>288</v>
-      </c>
-      <c r="C45" s="256" t="s">
-        <v>289</v>
-      </c>
-      <c r="D45" s="218" t="s">
-        <v>289</v>
-      </c>
-      <c r="E45" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F45" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G45" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1">
-      <c r="A46" s="89" t="s">
-        <v>493</v>
-      </c>
-      <c r="B46" s="219" t="s">
-        <v>387</v>
-      </c>
-      <c r="C46" s="175" t="s">
+      <c r="B50" s="203" t="s">
         <v>494</v>
       </c>
-      <c r="D46" s="199" t="s">
+      <c r="C50" s="203" t="s">
+        <v>494</v>
+      </c>
+      <c r="D50" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E50" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F50" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A51" s="229"/>
+      <c r="B51" s="205"/>
+      <c r="C51" s="206"/>
+      <c r="D51" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E51" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F51" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1">
+      <c r="A52" s="230" t="s">
         <v>495</v>
       </c>
-      <c r="E46" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F46" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G46" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="26.45" customHeight="1">
-      <c r="A47" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B47" s="220"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="205"/>
-      <c r="E47" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F47" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G47" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15">
-      <c r="A48" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B48" s="220"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="205"/>
-      <c r="E48" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F48" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G48" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1">
-      <c r="A49" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B49" s="221"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="205"/>
-      <c r="E49" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F49" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G49" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
-      <c r="A50" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="B50" s="215" t="s">
+      <c r="B52" s="247" t="s">
         <v>496</v>
       </c>
-      <c r="C50" s="175" t="s">
+      <c r="C52" s="203" t="s">
         <v>497</v>
       </c>
-      <c r="D50" s="175" t="s">
-        <v>497</v>
-      </c>
-      <c r="E50" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F50" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G50" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A51" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="B51" s="216"/>
-      <c r="C51" s="181"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F51" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G51" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1">
-      <c r="A52" s="119" t="s">
-        <v>278</v>
-      </c>
-      <c r="B52" s="210" t="s">
+      <c r="D52" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E52" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F52" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1">
+      <c r="A53" s="231"/>
+      <c r="B53" s="248"/>
+      <c r="C53" s="204"/>
+      <c r="D53" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E53" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F53" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1">
+      <c r="A54" s="231"/>
+      <c r="B54" s="248"/>
+      <c r="C54" s="204"/>
+      <c r="D54" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E54" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F54" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1">
+      <c r="A55" s="231"/>
+      <c r="B55" s="248"/>
+      <c r="C55" s="204"/>
+      <c r="D55" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E55" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F55" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1">
+      <c r="A56" s="231"/>
+      <c r="B56" s="248"/>
+      <c r="C56" s="204"/>
+      <c r="D56" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E56" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F56" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1">
+      <c r="A57" s="231"/>
+      <c r="B57" s="248"/>
+      <c r="C57" s="204"/>
+      <c r="D57" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E57" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F57" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1">
+      <c r="A58" s="231"/>
+      <c r="B58" s="248"/>
+      <c r="C58" s="204"/>
+      <c r="D58" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E58" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F58" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1">
+      <c r="A59" s="231"/>
+      <c r="B59" s="248"/>
+      <c r="C59" s="204"/>
+      <c r="D59" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E59" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F59" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1">
+      <c r="A60" s="231"/>
+      <c r="B60" s="248"/>
+      <c r="C60" s="204"/>
+      <c r="D60" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E60" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F60" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1">
+      <c r="A61" s="231"/>
+      <c r="B61" s="248"/>
+      <c r="C61" s="204"/>
+      <c r="D61" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E61" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F61" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1">
+      <c r="A62" s="231"/>
+      <c r="B62" s="248"/>
+      <c r="C62" s="206"/>
+      <c r="D62" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E62" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F62" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1">
+      <c r="A63" s="223" t="s">
         <v>498</v>
       </c>
-      <c r="C52" s="257" t="s">
+      <c r="B63" s="236" t="s">
         <v>499</v>
       </c>
-      <c r="D52" s="175" t="s">
+      <c r="C63" s="249" t="s">
+        <v>298</v>
+      </c>
+      <c r="D63" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E63" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F63" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1">
+      <c r="A64" s="224"/>
+      <c r="B64" s="237"/>
+      <c r="C64" s="237"/>
+      <c r="D64" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E64" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F64" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" customHeight="1">
+      <c r="A65" s="224"/>
+      <c r="B65" s="237"/>
+      <c r="C65" s="237"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F65" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" customHeight="1">
+      <c r="A66" s="224"/>
+      <c r="B66" s="237"/>
+      <c r="C66" s="237"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F66" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" customHeight="1">
+      <c r="A67" s="224"/>
+      <c r="B67" s="237"/>
+      <c r="C67" s="237"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F67" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" customHeight="1">
+      <c r="A68" s="224"/>
+      <c r="B68" s="237"/>
+      <c r="C68" s="237"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F68" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" customHeight="1">
+      <c r="A69" s="225"/>
+      <c r="B69" s="238"/>
+      <c r="C69" s="237"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F69" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" customHeight="1">
+      <c r="A70" s="221" t="s">
         <v>500</v>
       </c>
-      <c r="E52" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F52" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G52" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1">
-      <c r="A53" s="119" t="s">
-        <v>278</v>
-      </c>
-      <c r="B53" s="211"/>
-      <c r="C53" s="258"/>
-      <c r="D53" s="177"/>
-      <c r="E53" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F53" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G53" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1">
-      <c r="A54" s="119" t="s">
-        <v>278</v>
-      </c>
-      <c r="B54" s="211"/>
-      <c r="C54" s="258"/>
-      <c r="D54" s="177"/>
-      <c r="E54" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F54" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G54" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1">
-      <c r="A55" s="119" t="s">
-        <v>278</v>
-      </c>
-      <c r="B55" s="211"/>
-      <c r="C55" s="258"/>
-      <c r="D55" s="177"/>
-      <c r="E55" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F55" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G55" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1">
-      <c r="A56" s="119" t="s">
-        <v>278</v>
-      </c>
-      <c r="B56" s="211"/>
-      <c r="C56" s="258"/>
-      <c r="D56" s="177"/>
-      <c r="E56" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F56" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G56" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1">
-      <c r="A57" s="119" t="s">
-        <v>278</v>
-      </c>
-      <c r="B57" s="211"/>
-      <c r="C57" s="258"/>
-      <c r="D57" s="177"/>
-      <c r="E57" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F57" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G57" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1">
-      <c r="A58" s="119" t="s">
-        <v>278</v>
-      </c>
-      <c r="B58" s="211"/>
-      <c r="C58" s="258"/>
-      <c r="D58" s="177"/>
-      <c r="E58" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F58" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G58" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1">
-      <c r="A59" s="119" t="s">
-        <v>278</v>
-      </c>
-      <c r="B59" s="211"/>
-      <c r="C59" s="258"/>
-      <c r="D59" s="177"/>
-      <c r="E59" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F59" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G59" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1">
-      <c r="A60" s="119" t="s">
-        <v>493</v>
-      </c>
-      <c r="B60" s="211"/>
-      <c r="C60" s="258"/>
-      <c r="D60" s="177"/>
-      <c r="E60" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F60" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G60" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1">
-      <c r="A61" s="119" t="s">
-        <v>493</v>
-      </c>
-      <c r="B61" s="211"/>
-      <c r="C61" s="258"/>
-      <c r="D61" s="177"/>
-      <c r="E61" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F61" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G61" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1">
-      <c r="A62" s="119" t="s">
-        <v>493</v>
-      </c>
-      <c r="B62" s="211"/>
-      <c r="C62" s="258"/>
-      <c r="D62" s="178"/>
-      <c r="E62" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F62" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G62" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1">
-      <c r="A63" s="119" t="s">
-        <v>493</v>
-      </c>
-      <c r="B63" s="228" t="s">
+      <c r="B70" s="239" t="s">
         <v>501</v>
       </c>
-      <c r="C63" s="199" t="s">
+      <c r="C70" s="236" t="s">
+        <v>301</v>
+      </c>
+      <c r="D70" s="89"/>
+      <c r="E70" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F70" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" customHeight="1">
+      <c r="A71" s="222"/>
+      <c r="B71" s="240"/>
+      <c r="C71" s="237"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F71" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15">
+      <c r="A72" s="233" t="s">
+        <v>403</v>
+      </c>
+      <c r="B72" s="203" t="s">
         <v>502</v>
       </c>
-      <c r="D63" s="200" t="s">
-        <v>298</v>
-      </c>
-      <c r="E63" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F63" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G63" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1">
-      <c r="A64" s="119" t="s">
-        <v>493</v>
-      </c>
-      <c r="B64" s="230"/>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
-      <c r="E64" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="F64" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G64" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15" customHeight="1">
-      <c r="A65" s="119" t="s">
-        <v>493</v>
-      </c>
-      <c r="B65" s="230"/>
-      <c r="C65" s="205"/>
-      <c r="D65" s="205"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G65" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1">
-      <c r="A66" s="119" t="s">
-        <v>493</v>
-      </c>
-      <c r="B66" s="230"/>
-      <c r="C66" s="205"/>
-      <c r="D66" s="205"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G66" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" customHeight="1">
-      <c r="A67" s="119" t="s">
-        <v>490</v>
-      </c>
-      <c r="B67" s="230"/>
-      <c r="C67" s="205"/>
-      <c r="D67" s="205"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G67" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15" customHeight="1">
-      <c r="A68" s="119" t="s">
-        <v>490</v>
-      </c>
-      <c r="B68" s="230"/>
-      <c r="C68" s="205"/>
-      <c r="D68" s="205"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G68" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1">
-      <c r="A69" s="119" t="s">
-        <v>493</v>
-      </c>
-      <c r="B69" s="229"/>
-      <c r="C69" s="206"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G69" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1">
-      <c r="A70" s="89" t="s">
-        <v>493</v>
-      </c>
-      <c r="B70" s="220" t="s">
+      <c r="C72" s="236" t="s">
+        <v>304</v>
+      </c>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F72" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15">
+      <c r="A73" s="234"/>
+      <c r="B73" s="210"/>
+      <c r="C73" s="237"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F73" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15">
+      <c r="A74" s="235"/>
+      <c r="B74" s="210"/>
+      <c r="C74" s="237"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F74" s="89" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" customHeight="1">
+      <c r="A75" s="232" t="s">
+        <v>406</v>
+      </c>
+      <c r="B75" s="203" t="s">
         <v>503</v>
       </c>
-      <c r="C70" s="253" t="s">
-        <v>504</v>
-      </c>
-      <c r="D70" s="199" t="s">
-        <v>301</v>
-      </c>
-      <c r="E70" s="89"/>
-      <c r="F70" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G70" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1">
-      <c r="A71" s="89" t="s">
-        <v>493</v>
-      </c>
-      <c r="B71" s="221"/>
-      <c r="C71" s="254"/>
-      <c r="D71" s="205"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G71" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15">
-      <c r="A72" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B72" s="233" t="s">
-        <v>403</v>
-      </c>
-      <c r="C72" s="175" t="s">
-        <v>505</v>
-      </c>
-      <c r="D72" s="199" t="s">
-        <v>304</v>
-      </c>
-      <c r="E72" s="89"/>
-      <c r="F72" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G72" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15">
-      <c r="A73" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B73" s="234"/>
-      <c r="C73" s="176"/>
-      <c r="D73" s="205"/>
-      <c r="E73" s="89"/>
-      <c r="F73" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G73" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15">
-      <c r="A74" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B74" s="235"/>
-      <c r="C74" s="176"/>
-      <c r="D74" s="205"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="G74" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1">
-      <c r="A75" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B75" s="219" t="s">
-        <v>406</v>
-      </c>
-      <c r="C75" s="175" t="s">
-        <v>506</v>
-      </c>
-      <c r="D75" s="199" t="s">
+      <c r="C75" s="236" t="s">
         <v>308</v>
       </c>
-      <c r="E75" s="89"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F75" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="G75" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1">
-      <c r="A76" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B76" s="220"/>
-      <c r="C76" s="176"/>
-      <c r="D76" s="205"/>
-      <c r="E76" s="89"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" customHeight="1">
+      <c r="A76" s="221"/>
+      <c r="B76" s="210"/>
+      <c r="C76" s="237"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="89" t="s">
+        <v>351</v>
+      </c>
       <c r="F76" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="G76" s="89" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1">
-      <c r="A77" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B77" s="221"/>
-      <c r="C77" s="176"/>
-      <c r="D77" s="205"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" customHeight="1">
+      <c r="A77" s="222"/>
+      <c r="B77" s="210"/>
+      <c r="C77" s="237"/>
+      <c r="D77" s="89"/>
       <c r="E77" s="89"/>
       <c r="F77" s="89"/>
-      <c r="G77" s="89"/>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1">
-      <c r="A78" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B78" s="219" t="s">
+    </row>
+    <row r="78" spans="1:6" ht="15" customHeight="1">
+      <c r="A78" s="232" t="s">
         <v>410</v>
       </c>
-      <c r="C78" s="175" t="s">
-        <v>507</v>
-      </c>
-      <c r="D78" s="199" t="s">
-        <v>508</v>
-      </c>
+      <c r="B78" s="203" t="s">
+        <v>504</v>
+      </c>
+      <c r="C78" s="236" t="s">
+        <v>505</v>
+      </c>
+      <c r="D78" s="89"/>
       <c r="E78" s="89"/>
       <c r="F78" s="89"/>
-      <c r="G78" s="89"/>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1">
-      <c r="A79" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B79" s="220"/>
-      <c r="C79" s="176"/>
-      <c r="D79" s="205"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" customHeight="1">
+      <c r="A79" s="221"/>
+      <c r="B79" s="210"/>
+      <c r="C79" s="237"/>
+      <c r="D79" s="89"/>
       <c r="E79" s="89"/>
       <c r="F79" s="89"/>
-      <c r="G79" s="89"/>
-    </row>
-    <row r="80" spans="1:7" ht="15">
-      <c r="A80" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="220"/>
-      <c r="C80" s="176"/>
-      <c r="D80" s="205"/>
+    </row>
+    <row r="80" spans="1:6" ht="15">
+      <c r="A80" s="221"/>
+      <c r="B80" s="210"/>
+      <c r="C80" s="237"/>
+      <c r="D80" s="89"/>
       <c r="E80" s="89"/>
       <c r="F80" s="89"/>
-      <c r="G80" s="89"/>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A81" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B81" s="220"/>
-      <c r="C81" s="176"/>
-      <c r="D81" s="205"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A81" s="221"/>
+      <c r="B81" s="210"/>
+      <c r="C81" s="237"/>
+      <c r="D81" s="89"/>
       <c r="E81" s="89"/>
       <c r="F81" s="89"/>
-      <c r="G81" s="89"/>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A82" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B82" s="221"/>
-      <c r="C82" s="176"/>
-      <c r="D82" s="205"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A82" s="222"/>
+      <c r="B82" s="210"/>
+      <c r="C82" s="237"/>
+      <c r="D82" s="89"/>
       <c r="E82" s="89"/>
       <c r="F82" s="89"/>
-      <c r="G82" s="89"/>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A83" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B83" s="226" t="s">
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A83" s="152" t="s">
         <v>413</v>
       </c>
-      <c r="C83" s="129" t="s">
-        <v>509</v>
-      </c>
-      <c r="D83" s="236" t="s">
-        <v>510</v>
-      </c>
+      <c r="B83" s="129" t="s">
+        <v>506</v>
+      </c>
+      <c r="C83" s="157" t="s">
+        <v>507</v>
+      </c>
+      <c r="D83" s="89"/>
       <c r="E83" s="89"/>
       <c r="F83" s="89"/>
-      <c r="G83" s="89"/>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A84" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B84" s="219" t="s">
-        <v>511</v>
-      </c>
-      <c r="C84" s="237" t="s">
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A84" s="232" t="s">
+        <v>508</v>
+      </c>
+      <c r="B84" s="158" t="s">
         <v>416</v>
       </c>
-      <c r="D84" s="199" t="s">
+      <c r="C84" s="236" t="s">
         <v>317</v>
       </c>
+      <c r="D84" s="89"/>
       <c r="E84" s="89"/>
       <c r="F84" s="89"/>
-      <c r="G84" s="89"/>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A85" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="B85" s="220"/>
-      <c r="C85" s="237" t="s">
-        <v>512</v>
-      </c>
-      <c r="D85" s="205"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A85" s="221"/>
+      <c r="B85" s="158" t="s">
+        <v>509</v>
+      </c>
+      <c r="C85" s="237"/>
+      <c r="D85" s="89"/>
       <c r="E85" s="89"/>
       <c r="F85" s="89"/>
-      <c r="G85" s="89"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="119" t="s">
-        <v>319</v>
-      </c>
-      <c r="B86" s="220"/>
-      <c r="C86" s="237" t="s">
-        <v>513</v>
-      </c>
-      <c r="D86" s="205"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="221"/>
+      <c r="B86" s="158" t="s">
+        <v>510</v>
+      </c>
+      <c r="C86" s="237"/>
+      <c r="D86" s="89"/>
       <c r="E86" s="89"/>
       <c r="F86" s="89"/>
-      <c r="G86" s="89"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="119" t="s">
-        <v>319</v>
-      </c>
-      <c r="B87" s="220"/>
-      <c r="C87" s="237" t="s">
-        <v>514</v>
-      </c>
-      <c r="D87" s="205"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="221"/>
+      <c r="B87" s="158" t="s">
+        <v>511</v>
+      </c>
+      <c r="C87" s="237"/>
+      <c r="D87" s="89"/>
       <c r="E87" s="89"/>
       <c r="F87" s="89"/>
-      <c r="G87" s="89"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="119" t="s">
-        <v>319</v>
-      </c>
-      <c r="B88" s="220"/>
-      <c r="C88" s="237" t="s">
-        <v>515</v>
-      </c>
-      <c r="D88" s="205"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="221"/>
+      <c r="B88" s="158" t="s">
+        <v>512</v>
+      </c>
+      <c r="C88" s="237"/>
+      <c r="D88" s="89"/>
       <c r="E88" s="89"/>
       <c r="F88" s="89"/>
-      <c r="G88" s="89"/>
-    </row>
-    <row r="89" spans="1:7" ht="27" customHeight="1">
-      <c r="A89" s="89"/>
-      <c r="B89" s="223" t="s">
+    </row>
+    <row r="89" spans="1:6" ht="27" customHeight="1">
+      <c r="A89" s="226" t="s">
         <v>419</v>
       </c>
-      <c r="C89" s="175" t="s">
-        <v>516</v>
-      </c>
-      <c r="D89" s="175" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A90" s="89"/>
-      <c r="B90" s="224"/>
-      <c r="C90" s="177"/>
-      <c r="D90" s="177"/>
-    </row>
-    <row r="91" spans="1:7" ht="27">
-      <c r="B91" s="255" t="s">
+      <c r="B89" s="203" t="s">
+        <v>513</v>
+      </c>
+      <c r="C89" s="203" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A90" s="227"/>
+      <c r="B90" s="204"/>
+      <c r="C90" s="204"/>
+    </row>
+    <row r="91" spans="1:6" ht="27">
+      <c r="A91" s="164" t="s">
         <v>422</v>
       </c>
+      <c r="B91" s="129" t="s">
+        <v>514</v>
+      </c>
       <c r="C91" s="129" t="s">
-        <v>517</v>
-      </c>
-      <c r="D91" s="129" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="B92" s="231"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="B93" s="231"/>
-    </row>
-    <row r="98" spans="4:4">
-      <c r="D98" s="238"/>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="155"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="155"/>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="D52:D62"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B52:B62"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A62"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A72:A74"/>
     <mergeCell ref="C26:C30"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C31:C35"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B62"/>
-    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C52:C62"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
     <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="C84:C88"/>
     <mergeCell ref="C63:C69"/>
     <mergeCell ref="C70:C71"/>
     <mergeCell ref="C72:C74"/>
     <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C52:C62"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="D63:D69"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="D36:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -10544,17 +10282,17 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="80" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="253" t="s">
         <v>347</v>
       </c>
       <c r="B2" s="81">
@@ -10565,7 +10303,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="184"/>
+      <c r="A3" s="254"/>
       <c r="B3" s="78">
         <v>177001</v>
       </c>
@@ -10574,7 +10312,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="184"/>
+      <c r="A4" s="254"/>
       <c r="B4" s="78">
         <v>178004</v>
       </c>
@@ -10583,7 +10321,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1">
-      <c r="A5" s="185"/>
+      <c r="A5" s="255"/>
       <c r="B5" s="78">
         <v>177910</v>
       </c>
@@ -10592,7 +10330,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="256" t="s">
         <v>361</v>
       </c>
       <c r="B6" s="81">
@@ -10603,7 +10341,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="187"/>
+      <c r="A7" s="257"/>
       <c r="B7" s="78">
         <v>176861</v>
       </c>
@@ -10612,7 +10350,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="187"/>
+      <c r="A8" s="257"/>
       <c r="B8" s="78">
         <v>176935</v>
       </c>
@@ -10621,7 +10359,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="187"/>
+      <c r="A9" s="257"/>
       <c r="B9" s="78">
         <v>177000</v>
       </c>
@@ -10630,7 +10368,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1">
-      <c r="A10" s="187"/>
+      <c r="A10" s="257"/>
       <c r="B10" s="79">
         <v>177880</v>
       </c>
@@ -10639,7 +10377,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="186" t="s">
+      <c r="A11" s="256" t="s">
         <v>377</v>
       </c>
       <c r="B11" s="81">
@@ -10650,7 +10388,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="187"/>
+      <c r="A12" s="257"/>
       <c r="B12" s="78">
         <v>176941</v>
       </c>
@@ -10659,7 +10397,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="187"/>
+      <c r="A13" s="257"/>
       <c r="B13" s="78">
         <v>177892</v>
       </c>
@@ -10668,7 +10406,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="187"/>
+      <c r="A14" s="257"/>
       <c r="B14" s="78">
         <v>177911</v>
       </c>
@@ -10677,7 +10415,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1">
-      <c r="A15" s="187"/>
+      <c r="A15" s="257"/>
       <c r="B15" s="79">
         <v>177866</v>
       </c>
@@ -10686,7 +10424,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="186" t="s">
+      <c r="A16" s="256" t="s">
         <v>392</v>
       </c>
       <c r="B16" s="81">
@@ -10697,7 +10435,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="187"/>
+      <c r="A17" s="257"/>
       <c r="B17" s="78">
         <v>176898</v>
       </c>
@@ -10706,7 +10444,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="187"/>
+      <c r="A18" s="257"/>
       <c r="B18" s="78">
         <v>177886</v>
       </c>
@@ -10715,7 +10453,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="187"/>
+      <c r="A19" s="257"/>
       <c r="B19" s="78">
         <v>176904</v>
       </c>
@@ -10724,7 +10462,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1">
-      <c r="A20" s="187"/>
+      <c r="A20" s="257"/>
       <c r="B20" s="79">
         <v>177900</v>
       </c>
@@ -10733,8 +10471,8 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="186" t="s">
-        <v>521</v>
+      <c r="A21" s="256" t="s">
+        <v>518</v>
       </c>
       <c r="B21" s="81">
         <v>177869</v>
@@ -10744,7 +10482,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="187"/>
+      <c r="A22" s="257"/>
       <c r="B22" s="78">
         <v>177893</v>
       </c>
@@ -10753,7 +10491,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="187"/>
+      <c r="A23" s="257"/>
       <c r="B23" s="78">
         <v>177867</v>
       </c>
@@ -10762,7 +10500,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1">
-      <c r="A24" s="188"/>
+      <c r="A24" s="258"/>
       <c r="B24" s="78">
         <v>176942</v>
       </c>
@@ -10791,15 +10529,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F9020DB8731A419774937FC6146875" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cce727be984306e986d66cc7e75d27ec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="38f87c6b-b13d-4a53-a3f2-47c7024cd4fe" xmlns:ns4="cef5ac8c-a64d-48dd-9b34-a3a94b4a65c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a9415ed0f06d8b59927468a09fb1c3a4" ns3:_="" ns4:_="">
     <xsd:import namespace="38f87c6b-b13d-4a53-a3f2-47c7024cd4fe"/>
@@ -11028,6 +10757,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -11035,11 +10773,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C84C84-2143-46D3-A805-86075B2935B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F82B7B-25A4-47EB-B748-E6D32946CBCC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F82B7B-25A4-47EB-B748-E6D32946CBCC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C84C84-2143-46D3-A805-86075B2935B0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
